--- a/spda.xlsx
+++ b/spda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jéfferson\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jéfferson\Documents\GIT\Planilha-SPDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1717,7 +1717,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1731,18 +1731,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1763,123 +1757,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1965,7 +1842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1982,19 +1859,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2003,13 +1880,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2019,133 +1896,76 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3469,7 +3289,7 @@
   <dimension ref="A1:Y209"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:S3"/>
+      <selection activeCell="E21" sqref="E21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3479,73 +3299,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3821,27 +3641,27 @@
       <c r="S17" s="16"/>
     </row>
     <row r="19" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="20"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="19"/>
     </row>
     <row r="20" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -3861,7 +3681,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O20" s="22" t="s">
@@ -3875,13 +3695,13 @@
       <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
         <v>123</v>
       </c>
       <c r="F21" s="22"/>
@@ -3892,7 +3712,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="19" t="s">
         <v>399</v>
       </c>
       <c r="O21" s="22">
@@ -3907,12 +3727,12 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="22" t="s">
         <v>16</v>
       </c>
@@ -3924,25 +3744,25 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="19" t="s">
         <v>12</v>
       </c>
       <c r="O22" s="22">
         <v>60</v>
       </c>
       <c r="P22" s="22"/>
-      <c r="Q22" s="30">
+      <c r="Q22" s="29">
         <f>O22*O23+2*(3*O24)*(O22+O23)+PI()*((3*O24)^2)</f>
         <v>8937.8760197630927</v>
       </c>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
     </row>
     <row r="23" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -3952,22 +3772,22 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O23" s="22">
         <v>60</v>
       </c>
       <c r="P23" s="22"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
     </row>
     <row r="24" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -3977,22 +3797,22 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="19" t="s">
         <v>14</v>
       </c>
       <c r="O24" s="22">
         <v>6</v>
       </c>
       <c r="P24" s="22"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="22" t="s">
         <v>387</v>
       </c>
@@ -4004,24 +3824,24 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="19" t="s">
         <v>15</v>
       </c>
       <c r="O25" s="22" t="s">
         <v>62</v>
       </c>
       <c r="P25" s="22"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
     </row>
     <row r="26" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="22" t="s">
         <v>253</v>
       </c>
@@ -4033,7 +3853,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="19" t="s">
         <v>18</v>
       </c>
       <c r="O26" s="22">
@@ -4065,7 +3885,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
-      <c r="N27" s="20" t="s">
+      <c r="N27" s="19" t="s">
         <v>21</v>
       </c>
       <c r="O27" s="22">
@@ -4097,7 +3917,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
-      <c r="N28" s="20" t="s">
+      <c r="N28" s="19" t="s">
         <v>437</v>
       </c>
       <c r="O28" s="22">
@@ -4112,24 +3932,24 @@
       <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="20" t="s">
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="19" t="s">
         <v>25</v>
       </c>
       <c r="O29" s="22" t="s">
@@ -4143,20 +3963,20 @@
       <c r="S29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="20" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="19" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="22" t="s">
@@ -4168,10 +3988,10 @@
       <c r="S30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="22" t="s">
         <v>31</v>
       </c>
@@ -4183,7 +4003,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
-      <c r="N31" s="20" t="s">
+      <c r="N31" s="19" t="s">
         <v>27</v>
       </c>
       <c r="O31" s="22">
@@ -4198,10 +4018,10 @@
       <c r="S31" s="22"/>
     </row>
     <row r="32" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="22" t="s">
         <v>403</v>
       </c>
@@ -4213,7 +4033,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
-      <c r="N32" s="20" t="s">
+      <c r="N32" s="19" t="s">
         <v>28</v>
       </c>
       <c r="O32" s="22">
@@ -4228,27 +4048,27 @@
       <c r="S32" s="22"/>
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
@@ -4268,7 +4088,7 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
-      <c r="N35" s="20" t="s">
+      <c r="N35" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O35" s="22" t="s">
@@ -4299,7 +4119,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
-      <c r="N36" s="20" t="s">
+      <c r="N36" s="19" t="s">
         <v>56</v>
       </c>
       <c r="O36" s="22">
@@ -4331,7 +4151,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
-      <c r="N37" s="20" t="s">
+      <c r="N37" s="19" t="s">
         <v>43</v>
       </c>
       <c r="O37" s="22">
@@ -4362,7 +4182,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
-      <c r="N38" s="20" t="s">
+      <c r="N38" s="19" t="s">
         <v>44</v>
       </c>
       <c r="O38" s="22">
@@ -4394,7 +4214,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
-      <c r="N39" s="20" t="s">
+      <c r="N39" s="19" t="s">
         <v>45</v>
       </c>
       <c r="O39" s="22">
@@ -4426,7 +4246,7 @@
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
-      <c r="N40" s="20" t="s">
+      <c r="N40" s="19" t="s">
         <v>46</v>
       </c>
       <c r="O40" s="22">
@@ -4447,25 +4267,25 @@
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="20" t="s">
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="25" t="str">
+      <c r="O41" s="28" t="str">
         <f>VLOOKUP(E41,Dados!AI4:AO7,7,0)</f>
         <v>-</v>
       </c>
-      <c r="P41" s="25"/>
+      <c r="P41" s="28"/>
       <c r="Q41" s="22" t="s">
         <v>60</v>
       </c>
@@ -4473,24 +4293,24 @@
       <c r="S41" s="22"/>
     </row>
     <row r="42" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="20" t="s">
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="19" t="s">
         <v>433</v>
       </c>
       <c r="O42" s="22">
@@ -4505,20 +4325,20 @@
       <c r="S42" s="22"/>
     </row>
     <row r="43" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="20" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="19" t="s">
         <v>48</v>
       </c>
       <c r="O43" s="22">
@@ -4548,7 +4368,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
-      <c r="N44" s="20" t="s">
+      <c r="N44" s="19" t="s">
         <v>49</v>
       </c>
       <c r="O44" s="22">
@@ -4576,7 +4396,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
-      <c r="N45" s="20" t="s">
+      <c r="N45" s="19" t="s">
         <v>50</v>
       </c>
       <c r="O45" s="22">
@@ -4601,7 +4421,7 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
-      <c r="N46" s="20" t="s">
+      <c r="N46" s="19" t="s">
         <v>51</v>
       </c>
       <c r="O46" s="22">
@@ -4613,24 +4433,24 @@
       <c r="S46" s="22"/>
     </row>
     <row r="47" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25" t="s">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="20" t="s">
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="19" t="s">
         <v>52</v>
       </c>
       <c r="O47" s="22">
@@ -4645,24 +4465,24 @@
       <c r="S47" s="22"/>
     </row>
     <row r="48" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="31">
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="27">
         <v>6</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="20" t="s">
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="19" t="s">
         <v>53</v>
       </c>
       <c r="O48" s="22">
@@ -4677,27 +4497,27 @@
       <c r="S48" s="22"/>
     </row>
     <row r="49" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="20" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="O49" s="27">
+      <c r="O49" s="31">
         <f>1/O48</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="P49" s="27"/>
+      <c r="P49" s="31"/>
       <c r="Q49" s="22" t="s">
         <v>63</v>
       </c>
@@ -4705,20 +4525,20 @@
       <c r="S49" s="22"/>
     </row>
     <row r="50" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="20" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="19" t="s">
         <v>55</v>
       </c>
       <c r="O50" s="22">
@@ -4733,25 +4553,25 @@
       <c r="S50" s="22"/>
     </row>
     <row r="51" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
     </row>
     <row r="52" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
@@ -4771,7 +4591,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
-      <c r="N52" s="20" t="s">
+      <c r="N52" s="19" t="s">
         <v>56</v>
       </c>
       <c r="O52" s="22">
@@ -4803,7 +4623,7 @@
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
-      <c r="N53" s="20" t="s">
+      <c r="N53" s="19" t="s">
         <v>43</v>
       </c>
       <c r="O53" s="22">
@@ -4834,7 +4654,7 @@
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="20" t="s">
+      <c r="N54" s="19" t="s">
         <v>44</v>
       </c>
       <c r="O54" s="22">
@@ -4866,7 +4686,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
-      <c r="N55" s="20" t="s">
+      <c r="N55" s="19" t="s">
         <v>45</v>
       </c>
       <c r="O55" s="22">
@@ -4898,7 +4718,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
-      <c r="N56" s="20" t="s">
+      <c r="N56" s="19" t="s">
         <v>46</v>
       </c>
       <c r="O56" s="22">
@@ -4919,25 +4739,25 @@
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="20" t="s">
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O57" s="25" t="str">
+      <c r="O57" s="28" t="str">
         <f>VLOOKUP(E57,Dados!AI4:AO7,7,0)</f>
         <v>-</v>
       </c>
-      <c r="P57" s="25"/>
+      <c r="P57" s="28"/>
       <c r="Q57" s="22" t="s">
         <v>60</v>
       </c>
@@ -4945,24 +4765,24 @@
       <c r="S57" s="22"/>
     </row>
     <row r="58" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26" t="s">
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="20" t="s">
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="19" t="s">
         <v>486</v>
       </c>
       <c r="O58" s="22">
@@ -4977,20 +4797,20 @@
       <c r="S58" s="22"/>
     </row>
     <row r="59" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="20" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="19" t="s">
         <v>48</v>
       </c>
       <c r="O59" s="22">
@@ -5020,7 +4840,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
-      <c r="N60" s="20" t="s">
+      <c r="N60" s="19" t="s">
         <v>49</v>
       </c>
       <c r="O60" s="22">
@@ -5048,7 +4868,7 @@
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
-      <c r="N61" s="20" t="s">
+      <c r="N61" s="19" t="s">
         <v>50</v>
       </c>
       <c r="O61" s="22">
@@ -5073,7 +4893,7 @@
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
-      <c r="N62" s="20" t="s">
+      <c r="N62" s="19" t="s">
         <v>51</v>
       </c>
       <c r="O62" s="22">
@@ -5085,24 +4905,24 @@
       <c r="S62" s="22"/>
     </row>
     <row r="63" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25" t="s">
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="20" t="s">
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="19" t="s">
         <v>52</v>
       </c>
       <c r="O63" s="22">
@@ -5117,24 +4937,24 @@
       <c r="S63" s="22"/>
     </row>
     <row r="64" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="31">
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="27">
         <v>2.5</v>
       </c>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="20" t="s">
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="19" t="s">
         <v>53</v>
       </c>
       <c r="O64" s="22">
@@ -5149,27 +4969,27 @@
       <c r="S64" s="22"/>
     </row>
     <row r="65" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="20" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="O65" s="27">
+      <c r="O65" s="31">
         <f>1/O64</f>
         <v>0.4</v>
       </c>
-      <c r="P65" s="27"/>
+      <c r="P65" s="31"/>
       <c r="Q65" s="22" t="s">
         <v>63</v>
       </c>
@@ -5177,20 +4997,20 @@
       <c r="S65" s="22"/>
     </row>
     <row r="66" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="20" t="s">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="19" t="s">
         <v>55</v>
       </c>
       <c r="O66" s="22">
@@ -5226,27 +5046,27 @@
       <c r="S67" s="16"/>
     </row>
     <row r="68" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="24"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
@@ -5266,7 +5086,7 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
-      <c r="N69" s="20" t="s">
+      <c r="N69" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O69" s="22" t="s">
@@ -5297,7 +5117,7 @@
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
-      <c r="N70" s="20" t="s">
+      <c r="N70" s="19" t="s">
         <v>77</v>
       </c>
       <c r="O70" s="23">
@@ -5320,16 +5140,16 @@
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
-      <c r="G71" s="26" t="s">
+      <c r="G71" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="20" t="s">
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="19" t="s">
         <v>79</v>
       </c>
       <c r="O71" s="22">
@@ -5361,7 +5181,7 @@
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
-      <c r="N72" s="20" t="s">
+      <c r="N72" s="19" t="s">
         <v>80</v>
       </c>
       <c r="O72" s="22">
@@ -5393,7 +5213,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
-      <c r="N73" s="20" t="s">
+      <c r="N73" s="19" t="s">
         <v>81</v>
       </c>
       <c r="O73" s="23">
@@ -5416,16 +5236,16 @@
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="20" t="s">
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="19" t="s">
         <v>82</v>
       </c>
       <c r="O74" s="22">
@@ -5450,16 +5270,16 @@
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
-      <c r="G75" s="26" t="s">
+      <c r="G75" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="20" t="s">
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="19" t="s">
         <v>84</v>
       </c>
       <c r="O75" s="22">
@@ -5491,7 +5311,7 @@
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
-      <c r="N76" s="20" t="s">
+      <c r="N76" s="19" t="s">
         <v>404</v>
       </c>
       <c r="O76" s="22">
@@ -5516,16 +5336,16 @@
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
-      <c r="G77" s="26" t="s">
+      <c r="G77" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="20" t="s">
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="19" t="s">
         <v>434</v>
       </c>
       <c r="O77" s="22">
@@ -5557,7 +5377,7 @@
       <c r="K78" s="22"/>
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
-      <c r="N78" s="20" t="s">
+      <c r="N78" s="19" t="s">
         <v>435</v>
       </c>
       <c r="O78" s="22">
@@ -5580,16 +5400,16 @@
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
-      <c r="G79" s="26" t="s">
+      <c r="G79" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="20" t="s">
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="19" t="s">
         <v>85</v>
       </c>
       <c r="O79" s="22">
@@ -5604,27 +5424,27 @@
       <c r="S79" s="22"/>
     </row>
     <row r="81" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="24"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="26"/>
+      <c r="S81" s="26"/>
     </row>
     <row r="82" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
@@ -5642,7 +5462,7 @@
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
       <c r="M82" s="22"/>
-      <c r="N82" s="20" t="s">
+      <c r="N82" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O82" s="22" t="s">
@@ -5673,7 +5493,7 @@
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
-      <c r="N83" s="20" t="s">
+      <c r="N83" s="19" t="s">
         <v>94</v>
       </c>
       <c r="O83" s="23">
@@ -5704,7 +5524,7 @@
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
-      <c r="N84" s="20" t="s">
+      <c r="N84" s="19" t="s">
         <v>98</v>
       </c>
       <c r="O84" s="23">
@@ -5725,16 +5545,16 @@
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
-      <c r="G85" s="26" t="s">
+      <c r="G85" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="20" t="s">
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="19" t="s">
         <v>99</v>
       </c>
       <c r="O85" s="23">
@@ -5762,7 +5582,7 @@
       <c r="K86" s="22"/>
       <c r="L86" s="22"/>
       <c r="M86" s="22"/>
-      <c r="N86" s="20" t="s">
+      <c r="N86" s="19" t="s">
         <v>100</v>
       </c>
       <c r="O86" s="22">
@@ -5791,7 +5611,7 @@
       <c r="K87" s="22"/>
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
-      <c r="N87" s="20" t="s">
+      <c r="N87" s="19" t="s">
         <v>101</v>
       </c>
       <c r="O87" s="22">
@@ -5818,7 +5638,7 @@
       <c r="K88" s="22"/>
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
-      <c r="N88" s="20" t="s">
+      <c r="N88" s="19" t="s">
         <v>102</v>
       </c>
       <c r="O88" s="22">
@@ -5845,7 +5665,7 @@
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
-      <c r="N89" s="20" t="s">
+      <c r="N89" s="19" t="s">
         <v>114</v>
       </c>
       <c r="O89" s="22">
@@ -5857,22 +5677,22 @@
       <c r="S89" s="22"/>
     </row>
     <row r="90" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="20" t="s">
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="19" t="s">
         <v>113</v>
       </c>
       <c r="O90" s="22">
@@ -5900,7 +5720,7 @@
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
-      <c r="N91" s="20" t="s">
+      <c r="N91" s="19" t="s">
         <v>108</v>
       </c>
       <c r="O91" s="23">
@@ -5930,7 +5750,7 @@
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
       <c r="M92" s="22"/>
-      <c r="N92" s="20" t="s">
+      <c r="N92" s="19" t="s">
         <v>109</v>
       </c>
       <c r="O92" s="23">
@@ -5960,7 +5780,7 @@
       <c r="K93" s="22"/>
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
-      <c r="N93" s="21" t="s">
+      <c r="N93" s="20" t="s">
         <v>117</v>
       </c>
       <c r="O93" s="23">
@@ -5990,27 +5810,27 @@
       <c r="M94" s="17"/>
     </row>
     <row r="95" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="24"/>
-      <c r="R95" s="24"/>
-      <c r="S95" s="24"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="26"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="26"/>
+      <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
@@ -6030,7 +5850,7 @@
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
-      <c r="N96" s="20" t="s">
+      <c r="N96" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O96" s="22" t="s">
@@ -6061,7 +5881,7 @@
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
-      <c r="N97" s="20" t="s">
+      <c r="N97" s="19" t="s">
         <v>121</v>
       </c>
       <c r="O97" s="22">
@@ -6093,7 +5913,7 @@
       <c r="K98" s="22"/>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
-      <c r="N98" s="20" t="s">
+      <c r="N98" s="19" t="s">
         <v>122</v>
       </c>
       <c r="O98" s="22">
@@ -6121,7 +5941,7 @@
       <c r="K99" s="22"/>
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
-      <c r="N99" s="20" t="s">
+      <c r="N99" s="19" t="s">
         <v>109</v>
       </c>
       <c r="O99" s="22">
@@ -6151,7 +5971,7 @@
       <c r="K100" s="22"/>
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
-      <c r="N100" s="21" t="s">
+      <c r="N100" s="20" t="s">
         <v>117</v>
       </c>
       <c r="O100" s="22">
@@ -6166,27 +5986,27 @@
       <c r="S100" s="22"/>
     </row>
     <row r="102" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="24"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="26"/>
+      <c r="P102" s="26"/>
+      <c r="Q102" s="26"/>
+      <c r="R102" s="26"/>
+      <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
@@ -6206,7 +6026,7 @@
       <c r="K103" s="22"/>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
-      <c r="N103" s="20" t="s">
+      <c r="N103" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O103" s="22" t="s">
@@ -6237,7 +6057,7 @@
       <c r="K104" s="22"/>
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
-      <c r="N104" s="20" t="s">
+      <c r="N104" s="19" t="s">
         <v>133</v>
       </c>
       <c r="O104" s="22">
@@ -6269,7 +6089,7 @@
       <c r="K105" s="22"/>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
-      <c r="N105" s="20" t="s">
+      <c r="N105" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O105" s="22">
@@ -6298,7 +6118,7 @@
       <c r="K106" s="22"/>
       <c r="L106" s="22"/>
       <c r="M106" s="22"/>
-      <c r="N106" s="20" t="s">
+      <c r="N106" s="19" t="s">
         <v>45</v>
       </c>
       <c r="O106" s="22">
@@ -6325,7 +6145,7 @@
       <c r="K107" s="22"/>
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
-      <c r="N107" s="20" t="s">
+      <c r="N107" s="19" t="s">
         <v>109</v>
       </c>
       <c r="O107" s="22">
@@ -6360,27 +6180,27 @@
       <c r="S108" s="16"/>
     </row>
     <row r="109" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="24" t="s">
+      <c r="A109" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
-      <c r="N109" s="24"/>
-      <c r="O109" s="24"/>
-      <c r="P109" s="24"/>
-      <c r="Q109" s="24"/>
-      <c r="R109" s="24"/>
-      <c r="S109" s="24"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="26"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="26"/>
+      <c r="P109" s="26"/>
+      <c r="Q109" s="26"/>
+      <c r="R109" s="26"/>
+      <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
@@ -6400,7 +6220,7 @@
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
       <c r="M110" s="22"/>
-      <c r="N110" s="20" t="s">
+      <c r="N110" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O110" s="22" t="s">
@@ -6431,7 +6251,7 @@
       <c r="K111" s="22"/>
       <c r="L111" s="22"/>
       <c r="M111" s="22"/>
-      <c r="N111" s="20" t="s">
+      <c r="N111" s="19" t="s">
         <v>94</v>
       </c>
       <c r="O111" s="22">
@@ -6463,7 +6283,7 @@
       <c r="K112" s="22"/>
       <c r="L112" s="22"/>
       <c r="M112" s="22"/>
-      <c r="N112" s="20" t="s">
+      <c r="N112" s="19" t="s">
         <v>338</v>
       </c>
       <c r="O112" s="22">
@@ -6495,7 +6315,7 @@
       <c r="K113" s="22"/>
       <c r="L113" s="22"/>
       <c r="M113" s="22"/>
-      <c r="N113" s="20" t="s">
+      <c r="N113" s="19" t="s">
         <v>344</v>
       </c>
       <c r="O113" s="22">
@@ -6525,7 +6345,7 @@
       <c r="K114" s="22"/>
       <c r="L114" s="22"/>
       <c r="M114" s="22"/>
-      <c r="N114" s="20" t="s">
+      <c r="N114" s="19" t="s">
         <v>409</v>
       </c>
       <c r="O114" s="22">
@@ -6554,7 +6374,7 @@
       <c r="K115" s="22"/>
       <c r="L115" s="22"/>
       <c r="M115" s="22"/>
-      <c r="N115" s="20" t="s">
+      <c r="N115" s="19" t="s">
         <v>411</v>
       </c>
       <c r="O115" s="22">
@@ -6581,7 +6401,7 @@
       <c r="K116" s="22"/>
       <c r="L116" s="22"/>
       <c r="M116" s="22"/>
-      <c r="N116" s="20" t="s">
+      <c r="N116" s="19" t="s">
         <v>412</v>
       </c>
       <c r="O116" s="22">
@@ -6608,7 +6428,7 @@
       <c r="K117" s="22"/>
       <c r="L117" s="22"/>
       <c r="M117" s="22"/>
-      <c r="N117" s="20" t="s">
+      <c r="N117" s="19" t="s">
         <v>413</v>
       </c>
       <c r="O117" s="22">
@@ -6635,7 +6455,7 @@
       <c r="K118" s="22"/>
       <c r="L118" s="22"/>
       <c r="M118" s="22"/>
-      <c r="N118" s="20" t="s">
+      <c r="N118" s="19" t="s">
         <v>414</v>
       </c>
       <c r="O118" s="22">
@@ -6664,7 +6484,7 @@
       <c r="K119" s="22"/>
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
-      <c r="N119" s="20" t="s">
+      <c r="N119" s="19" t="s">
         <v>108</v>
       </c>
       <c r="O119" s="22">
@@ -6694,7 +6514,7 @@
       <c r="K120" s="22"/>
       <c r="L120" s="22"/>
       <c r="M120" s="22"/>
-      <c r="N120" s="20" t="s">
+      <c r="N120" s="19" t="s">
         <v>109</v>
       </c>
       <c r="O120" s="22">
@@ -6724,7 +6544,7 @@
       <c r="K121" s="22"/>
       <c r="L121" s="22"/>
       <c r="M121" s="22"/>
-      <c r="N121" s="21" t="s">
+      <c r="N121" s="20" t="s">
         <v>473</v>
       </c>
       <c r="O121" s="22">
@@ -6739,27 +6559,27 @@
       <c r="S121" s="22"/>
     </row>
     <row r="123" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="24" t="s">
+      <c r="A123" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="24"/>
-      <c r="K123" s="24"/>
-      <c r="L123" s="24"/>
-      <c r="M123" s="24"/>
-      <c r="N123" s="24"/>
-      <c r="O123" s="24"/>
-      <c r="P123" s="24"/>
-      <c r="Q123" s="24"/>
-      <c r="R123" s="24"/>
-      <c r="S123" s="24"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="26"/>
+      <c r="M123" s="26"/>
+      <c r="N123" s="26"/>
+      <c r="O123" s="26"/>
+      <c r="P123" s="26"/>
+      <c r="Q123" s="26"/>
+      <c r="R123" s="26"/>
+      <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
@@ -6779,7 +6599,7 @@
       <c r="K124" s="22"/>
       <c r="L124" s="22"/>
       <c r="M124" s="22"/>
-      <c r="N124" s="20" t="s">
+      <c r="N124" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O124" s="22" t="s">
@@ -6810,7 +6630,7 @@
       <c r="K125" s="22"/>
       <c r="L125" s="22"/>
       <c r="M125" s="22"/>
-      <c r="N125" s="20" t="s">
+      <c r="N125" s="19" t="s">
         <v>141</v>
       </c>
       <c r="O125" s="23">
@@ -6840,7 +6660,7 @@
       <c r="K126" s="22"/>
       <c r="L126" s="22"/>
       <c r="M126" s="22"/>
-      <c r="N126" s="20" t="s">
+      <c r="N126" s="19" t="s">
         <v>142</v>
       </c>
       <c r="O126" s="23">
@@ -6872,7 +6692,7 @@
       <c r="K127" s="22"/>
       <c r="L127" s="22"/>
       <c r="M127" s="22"/>
-      <c r="N127" s="20" t="s">
+      <c r="N127" s="19" t="s">
         <v>143</v>
       </c>
       <c r="O127" s="23">
@@ -6902,7 +6722,7 @@
       <c r="K128" s="22"/>
       <c r="L128" s="22"/>
       <c r="M128" s="22"/>
-      <c r="N128" s="20" t="s">
+      <c r="N128" s="19" t="s">
         <v>146</v>
       </c>
       <c r="O128" s="23">
@@ -6932,7 +6752,7 @@
       <c r="K129" s="22"/>
       <c r="L129" s="22"/>
       <c r="M129" s="22"/>
-      <c r="N129" s="20" t="s">
+      <c r="N129" s="19" t="s">
         <v>144</v>
       </c>
       <c r="O129" s="23">
@@ -6964,7 +6784,7 @@
       <c r="K130" s="22"/>
       <c r="L130" s="22"/>
       <c r="M130" s="22"/>
-      <c r="N130" s="20" t="s">
+      <c r="N130" s="19" t="s">
         <v>145</v>
       </c>
       <c r="O130" s="23">
@@ -6994,7 +6814,7 @@
       <c r="K131" s="22"/>
       <c r="L131" s="22"/>
       <c r="M131" s="22"/>
-      <c r="N131" s="20" t="s">
+      <c r="N131" s="19" t="s">
         <v>147</v>
       </c>
       <c r="O131" s="23">
@@ -7024,7 +6844,7 @@
       <c r="K132" s="22"/>
       <c r="L132" s="22"/>
       <c r="M132" s="22"/>
-      <c r="N132" s="20" t="s">
+      <c r="N132" s="19" t="s">
         <v>148</v>
       </c>
       <c r="O132" s="23">
@@ -7060,27 +6880,27 @@
       <c r="S133" s="16"/>
     </row>
     <row r="134" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="24" t="s">
+      <c r="A134" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="24"/>
-      <c r="N134" s="24"/>
-      <c r="O134" s="24"/>
-      <c r="P134" s="24"/>
-      <c r="Q134" s="24"/>
-      <c r="R134" s="24"/>
-      <c r="S134" s="24"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
+      <c r="K134" s="26"/>
+      <c r="L134" s="26"/>
+      <c r="M134" s="26"/>
+      <c r="N134" s="26"/>
+      <c r="O134" s="26"/>
+      <c r="P134" s="26"/>
+      <c r="Q134" s="26"/>
+      <c r="R134" s="26"/>
+      <c r="S134" s="26"/>
     </row>
     <row r="135" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
@@ -7100,7 +6920,7 @@
       <c r="K135" s="22"/>
       <c r="L135" s="22"/>
       <c r="M135" s="22"/>
-      <c r="N135" s="20" t="s">
+      <c r="N135" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O135" s="22" t="s">
@@ -7131,7 +6951,7 @@
       <c r="K136" s="22"/>
       <c r="L136" s="22"/>
       <c r="M136" s="22"/>
-      <c r="N136" s="20" t="s">
+      <c r="N136" s="19" t="s">
         <v>166</v>
       </c>
       <c r="O136" s="23">
@@ -7161,7 +6981,7 @@
       <c r="K137" s="22"/>
       <c r="L137" s="22"/>
       <c r="M137" s="22"/>
-      <c r="N137" s="20" t="s">
+      <c r="N137" s="19" t="s">
         <v>167</v>
       </c>
       <c r="O137" s="23">
@@ -7193,7 +7013,7 @@
       <c r="K138" s="22"/>
       <c r="L138" s="22"/>
       <c r="M138" s="22"/>
-      <c r="N138" s="20" t="s">
+      <c r="N138" s="19" t="s">
         <v>207</v>
       </c>
       <c r="O138" s="23">
@@ -7223,7 +7043,7 @@
       <c r="K139" s="22"/>
       <c r="L139" s="22"/>
       <c r="M139" s="22"/>
-      <c r="N139" s="20" t="s">
+      <c r="N139" s="19" t="s">
         <v>168</v>
       </c>
       <c r="O139" s="23">
@@ -7253,7 +7073,7 @@
       <c r="K140" s="22"/>
       <c r="L140" s="22"/>
       <c r="M140" s="22"/>
-      <c r="N140" s="20" t="s">
+      <c r="N140" s="19" t="s">
         <v>169</v>
       </c>
       <c r="O140" s="23">
@@ -7285,7 +7105,7 @@
       <c r="K141" s="22"/>
       <c r="L141" s="22"/>
       <c r="M141" s="22"/>
-      <c r="N141" s="20" t="s">
+      <c r="N141" s="19" t="s">
         <v>487</v>
       </c>
       <c r="O141" s="23">
@@ -7315,7 +7135,7 @@
       <c r="K142" s="22"/>
       <c r="L142" s="22"/>
       <c r="M142" s="22"/>
-      <c r="N142" s="20" t="s">
+      <c r="N142" s="19" t="s">
         <v>488</v>
       </c>
       <c r="O142" s="23">
@@ -7345,7 +7165,7 @@
       <c r="K143" s="22"/>
       <c r="L143" s="22"/>
       <c r="M143" s="22"/>
-      <c r="N143" s="20" t="s">
+      <c r="N143" s="19" t="s">
         <v>489</v>
       </c>
       <c r="O143" s="23">
@@ -7360,27 +7180,27 @@
       <c r="S143" s="22"/>
     </row>
     <row r="145" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="24" t="s">
+      <c r="A145" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B145" s="24"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="24"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="24"/>
-      <c r="K145" s="24"/>
-      <c r="L145" s="24"/>
-      <c r="M145" s="24"/>
-      <c r="N145" s="24"/>
-      <c r="O145" s="24"/>
-      <c r="P145" s="24"/>
-      <c r="Q145" s="24"/>
-      <c r="R145" s="24"/>
-      <c r="S145" s="24"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="26"/>
+      <c r="M145" s="26"/>
+      <c r="N145" s="26"/>
+      <c r="O145" s="26"/>
+      <c r="P145" s="26"/>
+      <c r="Q145" s="26"/>
+      <c r="R145" s="26"/>
+      <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
@@ -7400,7 +7220,7 @@
       <c r="K146" s="22"/>
       <c r="L146" s="22"/>
       <c r="M146" s="22"/>
-      <c r="N146" s="20" t="s">
+      <c r="N146" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O146" s="22" t="s">
@@ -7431,7 +7251,7 @@
       <c r="K147" s="22"/>
       <c r="L147" s="22"/>
       <c r="M147" s="22"/>
-      <c r="N147" s="20" t="s">
+      <c r="N147" s="19" t="s">
         <v>178</v>
       </c>
       <c r="O147" s="23">
@@ -7446,14 +7266,14 @@
       <c r="S147" s="22"/>
     </row>
     <row r="148" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
-      <c r="F148" s="25"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
       <c r="G148" s="22" t="s">
         <v>71</v>
       </c>
@@ -7465,7 +7285,7 @@
       <c r="K148" s="22"/>
       <c r="L148" s="22"/>
       <c r="M148" s="22"/>
-      <c r="N148" s="20" t="s">
+      <c r="N148" s="19" t="s">
         <v>180</v>
       </c>
       <c r="O148" s="23">
@@ -7480,12 +7300,12 @@
       <c r="S148" s="22"/>
     </row>
     <row r="149" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="25"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
       <c r="G149" s="22" t="s">
         <v>72</v>
       </c>
@@ -7497,7 +7317,7 @@
       <c r="K149" s="22"/>
       <c r="L149" s="22"/>
       <c r="M149" s="22"/>
-      <c r="N149" s="20" t="s">
+      <c r="N149" s="19" t="s">
         <v>181</v>
       </c>
       <c r="O149" s="23">
@@ -7512,12 +7332,12 @@
       <c r="S149" s="22"/>
     </row>
     <row r="150" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="25"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
       <c r="G150" s="22" t="s">
         <v>441</v>
       </c>
@@ -7529,7 +7349,7 @@
       <c r="K150" s="22"/>
       <c r="L150" s="22"/>
       <c r="M150" s="22"/>
-      <c r="N150" s="20" t="s">
+      <c r="N150" s="19" t="s">
         <v>179</v>
       </c>
       <c r="O150" s="23">
@@ -7544,14 +7364,14 @@
       <c r="S150" s="22"/>
     </row>
     <row r="151" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="25"/>
-      <c r="F151" s="25"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
       <c r="G151" s="22" t="s">
         <v>71</v>
       </c>
@@ -7563,7 +7383,7 @@
       <c r="K151" s="22"/>
       <c r="L151" s="22"/>
       <c r="M151" s="22"/>
-      <c r="N151" s="20" t="s">
+      <c r="N151" s="19" t="s">
         <v>193</v>
       </c>
       <c r="O151" s="23">
@@ -7578,12 +7398,12 @@
       <c r="S151" s="22"/>
     </row>
     <row r="152" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="25"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="25"/>
-      <c r="D152" s="25"/>
-      <c r="E152" s="25"/>
-      <c r="F152" s="25"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
       <c r="G152" s="22" t="s">
         <v>72</v>
       </c>
@@ -7595,7 +7415,7 @@
       <c r="K152" s="22"/>
       <c r="L152" s="22"/>
       <c r="M152" s="22"/>
-      <c r="N152" s="20" t="s">
+      <c r="N152" s="19" t="s">
         <v>194</v>
       </c>
       <c r="O152" s="23">
@@ -7610,14 +7430,14 @@
       <c r="S152" s="22"/>
     </row>
     <row r="153" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="25" t="s">
+      <c r="A153" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B153" s="25"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="25"/>
-      <c r="F153" s="25"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
       <c r="G153" s="22" t="s">
         <v>71</v>
       </c>
@@ -7629,7 +7449,7 @@
       <c r="K153" s="22"/>
       <c r="L153" s="22"/>
       <c r="M153" s="22"/>
-      <c r="N153" s="20" t="s">
+      <c r="N153" s="19" t="s">
         <v>195</v>
       </c>
       <c r="O153" s="23">
@@ -7644,12 +7464,12 @@
       <c r="S153" s="22"/>
     </row>
     <row r="154" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="25"/>
-      <c r="B154" s="25"/>
-      <c r="C154" s="25"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="25"/>
-      <c r="F154" s="25"/>
+      <c r="A154" s="28"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
       <c r="G154" s="22" t="s">
         <v>72</v>
       </c>
@@ -7661,7 +7481,7 @@
       <c r="K154" s="22"/>
       <c r="L154" s="22"/>
       <c r="M154" s="22"/>
-      <c r="N154" s="20" t="s">
+      <c r="N154" s="19" t="s">
         <v>196</v>
       </c>
       <c r="O154" s="23">
@@ -7676,14 +7496,14 @@
       <c r="S154" s="22"/>
     </row>
     <row r="155" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="25" t="s">
+      <c r="A155" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B155" s="25"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="25"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
       <c r="G155" s="22" t="s">
         <v>71</v>
       </c>
@@ -7695,7 +7515,7 @@
       <c r="K155" s="22"/>
       <c r="L155" s="22"/>
       <c r="M155" s="22"/>
-      <c r="N155" s="20" t="s">
+      <c r="N155" s="19" t="s">
         <v>200</v>
       </c>
       <c r="O155" s="23">
@@ -7710,12 +7530,12 @@
       <c r="S155" s="22"/>
     </row>
     <row r="156" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="25"/>
-      <c r="B156" s="25"/>
-      <c r="C156" s="25"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="25"/>
-      <c r="F156" s="25"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
       <c r="G156" s="22" t="s">
         <v>72</v>
       </c>
@@ -7727,7 +7547,7 @@
       <c r="K156" s="22"/>
       <c r="L156" s="22"/>
       <c r="M156" s="22"/>
-      <c r="N156" s="20" t="s">
+      <c r="N156" s="19" t="s">
         <v>444</v>
       </c>
       <c r="O156" s="23">
@@ -7742,14 +7562,14 @@
       <c r="S156" s="22"/>
     </row>
     <row r="157" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="25" t="s">
+      <c r="A157" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B157" s="25"/>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="25"/>
-      <c r="F157" s="25"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
       <c r="G157" s="22" t="s">
         <v>71</v>
       </c>
@@ -7761,7 +7581,7 @@
       <c r="K157" s="22"/>
       <c r="L157" s="22"/>
       <c r="M157" s="22"/>
-      <c r="N157" s="20" t="s">
+      <c r="N157" s="19" t="s">
         <v>201</v>
       </c>
       <c r="O157" s="23">
@@ -7776,12 +7596,12 @@
       <c r="S157" s="22"/>
     </row>
     <row r="158" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="25"/>
-      <c r="B158" s="25"/>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25"/>
-      <c r="F158" s="25"/>
+      <c r="A158" s="28"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28"/>
       <c r="G158" s="22" t="s">
         <v>72</v>
       </c>
@@ -7793,7 +7613,7 @@
       <c r="K158" s="22"/>
       <c r="L158" s="22"/>
       <c r="M158" s="22"/>
-      <c r="N158" s="20" t="s">
+      <c r="N158" s="19" t="s">
         <v>445</v>
       </c>
       <c r="O158" s="23">
@@ -7808,14 +7628,14 @@
       <c r="S158" s="22"/>
     </row>
     <row r="159" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="B159" s="25"/>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="25"/>
-      <c r="F159" s="25"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="28"/>
       <c r="G159" s="22" t="s">
         <v>71</v>
       </c>
@@ -7827,7 +7647,7 @@
       <c r="K159" s="22"/>
       <c r="L159" s="22"/>
       <c r="M159" s="22"/>
-      <c r="N159" s="20" t="s">
+      <c r="N159" s="19" t="s">
         <v>218</v>
       </c>
       <c r="O159" s="23">
@@ -7842,12 +7662,12 @@
       <c r="S159" s="22"/>
     </row>
     <row r="160" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="25"/>
-      <c r="B160" s="25"/>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="25"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="28"/>
       <c r="G160" s="22" t="s">
         <v>72</v>
       </c>
@@ -7859,7 +7679,7 @@
       <c r="K160" s="22"/>
       <c r="L160" s="22"/>
       <c r="M160" s="22"/>
-      <c r="N160" s="20" t="s">
+      <c r="N160" s="19" t="s">
         <v>219</v>
       </c>
       <c r="O160" s="23">
@@ -7891,7 +7711,7 @@
       <c r="K161" s="22"/>
       <c r="L161" s="22"/>
       <c r="M161" s="22"/>
-      <c r="N161" s="20" t="s">
+      <c r="N161" s="19" t="s">
         <v>208</v>
       </c>
       <c r="O161" s="23">
@@ -7923,7 +7743,7 @@
       <c r="K162" s="22"/>
       <c r="L162" s="22"/>
       <c r="M162" s="22"/>
-      <c r="N162" s="20" t="s">
+      <c r="N162" s="19" t="s">
         <v>209</v>
       </c>
       <c r="O162" s="23">
@@ -7953,7 +7773,7 @@
       <c r="K163" s="22"/>
       <c r="L163" s="22"/>
       <c r="M163" s="22"/>
-      <c r="N163" s="20" t="s">
+      <c r="N163" s="19" t="s">
         <v>210</v>
       </c>
       <c r="O163" s="23">
@@ -7989,27 +7809,27 @@
       <c r="S164" s="18"/>
     </row>
     <row r="165" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="24" t="s">
+      <c r="A165" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="B165" s="24"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="24"/>
-      <c r="I165" s="24"/>
-      <c r="J165" s="24"/>
-      <c r="K165" s="24"/>
-      <c r="L165" s="24"/>
-      <c r="M165" s="24"/>
-      <c r="N165" s="24"/>
-      <c r="O165" s="24"/>
-      <c r="P165" s="24"/>
-      <c r="Q165" s="24"/>
-      <c r="R165" s="24"/>
-      <c r="S165" s="24"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="26"/>
+      <c r="I165" s="26"/>
+      <c r="J165" s="26"/>
+      <c r="K165" s="26"/>
+      <c r="L165" s="26"/>
+      <c r="M165" s="26"/>
+      <c r="N165" s="26"/>
+      <c r="O165" s="26"/>
+      <c r="P165" s="26"/>
+      <c r="Q165" s="26"/>
+      <c r="R165" s="26"/>
+      <c r="S165" s="26"/>
     </row>
     <row r="166" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="22" t="s">
@@ -8027,7 +7847,7 @@
       <c r="K166" s="22"/>
       <c r="L166" s="22"/>
       <c r="M166" s="22"/>
-      <c r="N166" s="20" t="s">
+      <c r="N166" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O166" s="22" t="s">
@@ -8056,7 +7876,7 @@
       <c r="K167" s="22"/>
       <c r="L167" s="22"/>
       <c r="M167" s="22"/>
-      <c r="N167" s="20" t="s">
+      <c r="N167" s="19" t="s">
         <v>211</v>
       </c>
       <c r="O167" s="23">
@@ -8086,7 +7906,7 @@
       <c r="K168" s="22"/>
       <c r="L168" s="22"/>
       <c r="M168" s="22"/>
-      <c r="N168" s="20" t="s">
+      <c r="N168" s="19" t="s">
         <v>212</v>
       </c>
       <c r="O168" s="23">
@@ -8116,7 +7936,7 @@
       <c r="K169" s="22"/>
       <c r="L169" s="22"/>
       <c r="M169" s="22"/>
-      <c r="N169" s="20" t="s">
+      <c r="N169" s="19" t="s">
         <v>213</v>
       </c>
       <c r="O169" s="23">
@@ -8146,7 +7966,7 @@
       <c r="K170" s="22"/>
       <c r="L170" s="22"/>
       <c r="M170" s="22"/>
-      <c r="N170" s="20" t="s">
+      <c r="N170" s="19" t="s">
         <v>214</v>
       </c>
       <c r="O170" s="23">
@@ -8178,7 +7998,7 @@
       <c r="K171" s="22"/>
       <c r="L171" s="22"/>
       <c r="M171" s="22"/>
-      <c r="N171" s="20" t="s">
+      <c r="N171" s="19" t="s">
         <v>216</v>
       </c>
       <c r="O171" s="23">
@@ -8210,7 +8030,7 @@
       <c r="K172" s="22"/>
       <c r="L172" s="22"/>
       <c r="M172" s="22"/>
-      <c r="N172" s="20" t="s">
+      <c r="N172" s="19" t="s">
         <v>217</v>
       </c>
       <c r="O172" s="23">
@@ -8240,7 +8060,7 @@
       <c r="K173" s="22"/>
       <c r="L173" s="22"/>
       <c r="M173" s="22"/>
-      <c r="N173" s="20" t="s">
+      <c r="N173" s="19" t="s">
         <v>215</v>
       </c>
       <c r="O173" s="23">
@@ -8272,7 +8092,7 @@
       <c r="K174" s="22"/>
       <c r="L174" s="22"/>
       <c r="M174" s="22"/>
-      <c r="N174" s="20" t="s">
+      <c r="N174" s="19" t="s">
         <v>235</v>
       </c>
       <c r="O174" s="23">
@@ -8304,7 +8124,7 @@
       <c r="K175" s="22"/>
       <c r="L175" s="22"/>
       <c r="M175" s="22"/>
-      <c r="N175" s="20" t="s">
+      <c r="N175" s="19" t="s">
         <v>501</v>
       </c>
       <c r="O175" s="23">
@@ -8334,7 +8154,7 @@
       <c r="K176" s="22"/>
       <c r="L176" s="22"/>
       <c r="M176" s="22"/>
-      <c r="N176" s="20" t="s">
+      <c r="N176" s="19" t="s">
         <v>220</v>
       </c>
       <c r="O176" s="23">
@@ -8366,7 +8186,7 @@
       <c r="K177" s="22"/>
       <c r="L177" s="22"/>
       <c r="M177" s="22"/>
-      <c r="N177" s="20" t="s">
+      <c r="N177" s="19" t="s">
         <v>221</v>
       </c>
       <c r="O177" s="23">
@@ -8398,7 +8218,7 @@
       <c r="K178" s="22"/>
       <c r="L178" s="22"/>
       <c r="M178" s="22"/>
-      <c r="N178" s="20" t="s">
+      <c r="N178" s="19" t="s">
         <v>222</v>
       </c>
       <c r="O178" s="23">
@@ -8428,7 +8248,7 @@
       <c r="K179" s="22"/>
       <c r="L179" s="22"/>
       <c r="M179" s="22"/>
-      <c r="N179" s="20" t="s">
+      <c r="N179" s="19" t="s">
         <v>223</v>
       </c>
       <c r="O179" s="23">
@@ -8460,7 +8280,7 @@
       <c r="K180" s="22"/>
       <c r="L180" s="22"/>
       <c r="M180" s="22"/>
-      <c r="N180" s="20" t="s">
+      <c r="N180" s="19" t="s">
         <v>224</v>
       </c>
       <c r="O180" s="23">
@@ -8492,7 +8312,7 @@
       <c r="K181" s="22"/>
       <c r="L181" s="22"/>
       <c r="M181" s="22"/>
-      <c r="N181" s="20" t="s">
+      <c r="N181" s="19" t="s">
         <v>225</v>
       </c>
       <c r="O181" s="23">
@@ -8522,7 +8342,7 @@
       <c r="K182" s="22"/>
       <c r="L182" s="22"/>
       <c r="M182" s="22"/>
-      <c r="N182" s="20" t="s">
+      <c r="N182" s="19" t="s">
         <v>226</v>
       </c>
       <c r="O182" s="23">
@@ -8558,27 +8378,27 @@
       <c r="S183"/>
     </row>
     <row r="184" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="24" t="s">
+      <c r="A184" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="B184" s="24"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="24"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="24"/>
-      <c r="G184" s="24"/>
-      <c r="H184" s="24"/>
-      <c r="I184" s="24"/>
-      <c r="J184" s="24"/>
-      <c r="K184" s="24"/>
-      <c r="L184" s="24"/>
-      <c r="M184" s="24"/>
-      <c r="N184" s="24"/>
-      <c r="O184" s="24"/>
-      <c r="P184" s="24"/>
-      <c r="Q184" s="24"/>
-      <c r="R184" s="24"/>
-      <c r="S184" s="24"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="26"/>
+      <c r="G184" s="26"/>
+      <c r="H184" s="26"/>
+      <c r="I184" s="26"/>
+      <c r="J184" s="26"/>
+      <c r="K184" s="26"/>
+      <c r="L184" s="26"/>
+      <c r="M184" s="26"/>
+      <c r="N184" s="26"/>
+      <c r="O184" s="26"/>
+      <c r="P184" s="26"/>
+      <c r="Q184" s="26"/>
+      <c r="R184" s="26"/>
+      <c r="S184" s="26"/>
     </row>
     <row r="185" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="22" t="s">
@@ -8596,7 +8416,7 @@
       <c r="K185" s="22"/>
       <c r="L185" s="22"/>
       <c r="M185" s="22"/>
-      <c r="N185" s="20" t="s">
+      <c r="N185" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O185" s="22" t="s">
@@ -8625,7 +8445,7 @@
       <c r="K186" s="22"/>
       <c r="L186" s="22"/>
       <c r="M186" s="22"/>
-      <c r="N186" s="20" t="s">
+      <c r="N186" s="19" t="s">
         <v>211</v>
       </c>
       <c r="O186" s="23">
@@ -8655,7 +8475,7 @@
       <c r="K187" s="22"/>
       <c r="L187" s="22"/>
       <c r="M187" s="22"/>
-      <c r="N187" s="20" t="s">
+      <c r="N187" s="19" t="s">
         <v>212</v>
       </c>
       <c r="O187" s="23">
@@ -8685,7 +8505,7 @@
       <c r="K188" s="22"/>
       <c r="L188" s="22"/>
       <c r="M188" s="22"/>
-      <c r="N188" s="20" t="s">
+      <c r="N188" s="19" t="s">
         <v>213</v>
       </c>
       <c r="O188" s="23">
@@ -8715,7 +8535,7 @@
       <c r="K189" s="22"/>
       <c r="L189" s="22"/>
       <c r="M189" s="22"/>
-      <c r="N189" s="20" t="s">
+      <c r="N189" s="19" t="s">
         <v>214</v>
       </c>
       <c r="O189" s="23">
@@ -8747,7 +8567,7 @@
       <c r="K190" s="22"/>
       <c r="L190" s="22"/>
       <c r="M190" s="22"/>
-      <c r="N190" s="20" t="s">
+      <c r="N190" s="19" t="s">
         <v>216</v>
       </c>
       <c r="O190" s="23">
@@ -8779,7 +8599,7 @@
       <c r="K191" s="22"/>
       <c r="L191" s="22"/>
       <c r="M191" s="22"/>
-      <c r="N191" s="20" t="s">
+      <c r="N191" s="19" t="s">
         <v>217</v>
       </c>
       <c r="O191" s="23">
@@ -8809,7 +8629,7 @@
       <c r="K192" s="22"/>
       <c r="L192" s="22"/>
       <c r="M192" s="22"/>
-      <c r="N192" s="20" t="s">
+      <c r="N192" s="19" t="s">
         <v>215</v>
       </c>
       <c r="O192" s="23">
@@ -8841,7 +8661,7 @@
       <c r="K193" s="22"/>
       <c r="L193" s="22"/>
       <c r="M193" s="22"/>
-      <c r="N193" s="20" t="s">
+      <c r="N193" s="19" t="s">
         <v>235</v>
       </c>
       <c r="O193" s="23">
@@ -8873,7 +8693,7 @@
       <c r="K194" s="22"/>
       <c r="L194" s="22"/>
       <c r="M194" s="22"/>
-      <c r="N194" s="20" t="s">
+      <c r="N194" s="19" t="s">
         <v>461</v>
       </c>
       <c r="O194" s="23">
@@ -8903,7 +8723,7 @@
       <c r="K195" s="22"/>
       <c r="L195" s="22"/>
       <c r="M195" s="22"/>
-      <c r="N195" s="20" t="s">
+      <c r="N195" s="19" t="s">
         <v>220</v>
       </c>
       <c r="O195" s="23">
@@ -8935,7 +8755,7 @@
       <c r="K196" s="22"/>
       <c r="L196" s="22"/>
       <c r="M196" s="22"/>
-      <c r="N196" s="20" t="s">
+      <c r="N196" s="19" t="s">
         <v>221</v>
       </c>
       <c r="O196" s="23">
@@ -8967,7 +8787,7 @@
       <c r="K197" s="22"/>
       <c r="L197" s="22"/>
       <c r="M197" s="22"/>
-      <c r="N197" s="20" t="s">
+      <c r="N197" s="19" t="s">
         <v>222</v>
       </c>
       <c r="O197" s="23">
@@ -8997,7 +8817,7 @@
       <c r="K198" s="22"/>
       <c r="L198" s="22"/>
       <c r="M198" s="22"/>
-      <c r="N198" s="20" t="s">
+      <c r="N198" s="19" t="s">
         <v>223</v>
       </c>
       <c r="O198" s="23">
@@ -9029,7 +8849,7 @@
       <c r="K199" s="22"/>
       <c r="L199" s="22"/>
       <c r="M199" s="22"/>
-      <c r="N199" s="20" t="s">
+      <c r="N199" s="19" t="s">
         <v>224</v>
       </c>
       <c r="O199" s="23">
@@ -9061,7 +8881,7 @@
       <c r="K200" s="22"/>
       <c r="L200" s="22"/>
       <c r="M200" s="22"/>
-      <c r="N200" s="20" t="s">
+      <c r="N200" s="19" t="s">
         <v>225</v>
       </c>
       <c r="O200" s="23">
@@ -9091,7 +8911,7 @@
       <c r="K201" s="22"/>
       <c r="L201" s="22"/>
       <c r="M201" s="22"/>
-      <c r="N201" s="20" t="s">
+      <c r="N201" s="19" t="s">
         <v>226</v>
       </c>
       <c r="O201" s="23">
@@ -9127,27 +8947,27 @@
       <c r="S202" s="16"/>
     </row>
     <row r="203" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="24" t="s">
+      <c r="A203" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="B203" s="24"/>
-      <c r="C203" s="24"/>
-      <c r="D203" s="24"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="24"/>
-      <c r="G203" s="24"/>
-      <c r="H203" s="24"/>
-      <c r="I203" s="24"/>
-      <c r="J203" s="24"/>
-      <c r="K203" s="24"/>
-      <c r="L203" s="24"/>
-      <c r="M203" s="24"/>
-      <c r="N203" s="24"/>
-      <c r="O203" s="24"/>
-      <c r="P203" s="24"/>
-      <c r="Q203" s="24"/>
-      <c r="R203" s="24"/>
-      <c r="S203" s="24"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="26"/>
+      <c r="F203" s="26"/>
+      <c r="G203" s="26"/>
+      <c r="H203" s="26"/>
+      <c r="I203" s="26"/>
+      <c r="J203" s="26"/>
+      <c r="K203" s="26"/>
+      <c r="L203" s="26"/>
+      <c r="M203" s="26"/>
+      <c r="N203" s="26"/>
+      <c r="O203" s="26"/>
+      <c r="P203" s="26"/>
+      <c r="Q203" s="26"/>
+      <c r="R203" s="26"/>
+      <c r="S203" s="26"/>
     </row>
     <row r="204" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="22" t="s">
@@ -9157,7 +8977,7 @@
       <c r="C204" s="22"/>
       <c r="D204" s="22"/>
       <c r="E204" s="22"/>
-      <c r="F204" s="20" t="s">
+      <c r="F204" s="19" t="s">
         <v>8</v>
       </c>
       <c r="G204" s="22" t="s">
@@ -9173,12 +8993,12 @@
         <v>471</v>
       </c>
       <c r="M204" s="22"/>
-      <c r="N204" s="26" t="s">
+      <c r="N204" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="O204" s="26"/>
-      <c r="P204" s="26"/>
-      <c r="Q204" s="26"/>
+      <c r="O204" s="25"/>
+      <c r="P204" s="25"/>
+      <c r="Q204" s="25"/>
       <c r="R204" s="22" t="s">
         <v>511</v>
       </c>
@@ -9192,7 +9012,7 @@
       <c r="C205" s="22"/>
       <c r="D205" s="22"/>
       <c r="E205" s="22"/>
-      <c r="F205" s="20" t="s">
+      <c r="F205" s="19" t="s">
         <v>448</v>
       </c>
       <c r="G205" s="23">
@@ -9205,10 +9025,10 @@
       </c>
       <c r="J205" s="22"/>
       <c r="K205" s="22"/>
-      <c r="L205" s="32">
+      <c r="L205" s="24">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M205" s="32"/>
+      <c r="M205" s="24"/>
       <c r="N205" s="22" t="s">
         <v>65</v>
       </c>
@@ -9228,7 +9048,7 @@
       <c r="C206" s="22"/>
       <c r="D206" s="22"/>
       <c r="E206" s="22"/>
-      <c r="F206" s="20" t="s">
+      <c r="F206" s="19" t="s">
         <v>449</v>
       </c>
       <c r="G206" s="23">
@@ -9240,16 +9060,16 @@
       </c>
       <c r="J206" s="22"/>
       <c r="K206" s="22"/>
-      <c r="L206" s="32">
+      <c r="L206" s="24">
         <v>1E-3</v>
       </c>
-      <c r="M206" s="32"/>
-      <c r="N206" s="26" t="s">
+      <c r="M206" s="24"/>
+      <c r="N206" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="O206" s="26"/>
-      <c r="P206" s="26"/>
-      <c r="Q206" s="26"/>
+      <c r="O206" s="25"/>
+      <c r="P206" s="25"/>
+      <c r="Q206" s="25"/>
       <c r="R206" s="22" t="s">
         <v>460</v>
       </c>
@@ -9263,7 +9083,7 @@
       <c r="C207" s="22"/>
       <c r="D207" s="22"/>
       <c r="E207" s="22"/>
-      <c r="F207" s="20" t="s">
+      <c r="F207" s="19" t="s">
         <v>450</v>
       </c>
       <c r="G207" s="23">
@@ -9275,10 +9095,10 @@
       </c>
       <c r="J207" s="22"/>
       <c r="K207" s="22"/>
-      <c r="L207" s="32">
+      <c r="L207" s="24">
         <v>1E-4</v>
       </c>
-      <c r="M207" s="32"/>
+      <c r="M207" s="24"/>
       <c r="N207" s="22" t="s">
         <v>469</v>
       </c>
@@ -9298,7 +9118,7 @@
       <c r="C208" s="22"/>
       <c r="D208" s="22"/>
       <c r="E208" s="22"/>
-      <c r="F208" s="20" t="s">
+      <c r="F208" s="19" t="s">
         <v>451</v>
       </c>
       <c r="G208" s="23">
@@ -9311,10 +9131,10 @@
       </c>
       <c r="J208" s="22"/>
       <c r="K208" s="22"/>
-      <c r="L208" s="32">
+      <c r="L208" s="24">
         <v>1E-3</v>
       </c>
-      <c r="M208" s="32"/>
+      <c r="M208" s="24"/>
       <c r="N208" s="22" t="s">
         <v>470</v>
       </c>
@@ -9334,7 +9154,7 @@
       <c r="C209" s="22"/>
       <c r="D209" s="22"/>
       <c r="E209" s="22"/>
-      <c r="F209" s="20" t="s">
+      <c r="F209" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G209" s="23">
@@ -9347,10 +9167,10 @@
       </c>
       <c r="J209" s="22"/>
       <c r="K209" s="22"/>
-      <c r="L209" s="32">
+      <c r="L209" s="24">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M209" s="32"/>
+      <c r="M209" s="24"/>
       <c r="N209" s="18"/>
       <c r="O209" s="18"/>
       <c r="P209" s="18"/>
@@ -9360,6 +9180,579 @@
     </row>
   </sheetData>
   <mergeCells count="597">
+    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="G200:M200"/>
+    <mergeCell ref="O200:P200"/>
+    <mergeCell ref="Q200:S200"/>
+    <mergeCell ref="A201:M201"/>
+    <mergeCell ref="O201:P201"/>
+    <mergeCell ref="Q201:S201"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="G197:M197"/>
+    <mergeCell ref="O197:P197"/>
+    <mergeCell ref="Q197:S197"/>
+    <mergeCell ref="A198:M198"/>
+    <mergeCell ref="O198:P198"/>
+    <mergeCell ref="Q198:S198"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="G199:M199"/>
+    <mergeCell ref="O199:P199"/>
+    <mergeCell ref="Q199:S199"/>
+    <mergeCell ref="A194:F194"/>
+    <mergeCell ref="G194:M194"/>
+    <mergeCell ref="O194:P194"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="A195:M195"/>
+    <mergeCell ref="O195:P195"/>
+    <mergeCell ref="Q195:S195"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="G196:M196"/>
+    <mergeCell ref="O196:P196"/>
+    <mergeCell ref="Q196:S196"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="G191:M191"/>
+    <mergeCell ref="O191:P191"/>
+    <mergeCell ref="Q191:S191"/>
+    <mergeCell ref="A192:M192"/>
+    <mergeCell ref="O192:P192"/>
+    <mergeCell ref="Q192:S192"/>
+    <mergeCell ref="A193:F193"/>
+    <mergeCell ref="G193:M193"/>
+    <mergeCell ref="O193:P193"/>
+    <mergeCell ref="Q193:S193"/>
+    <mergeCell ref="A188:M188"/>
+    <mergeCell ref="O188:P188"/>
+    <mergeCell ref="Q188:S188"/>
+    <mergeCell ref="A189:M189"/>
+    <mergeCell ref="O189:P189"/>
+    <mergeCell ref="Q189:S189"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="G190:M190"/>
+    <mergeCell ref="O190:P190"/>
+    <mergeCell ref="Q190:S190"/>
+    <mergeCell ref="A184:S184"/>
+    <mergeCell ref="A185:M185"/>
+    <mergeCell ref="O185:P185"/>
+    <mergeCell ref="Q185:S185"/>
+    <mergeCell ref="A186:M186"/>
+    <mergeCell ref="O186:P186"/>
+    <mergeCell ref="Q186:S186"/>
+    <mergeCell ref="A187:M187"/>
+    <mergeCell ref="O187:P187"/>
+    <mergeCell ref="Q187:S187"/>
+    <mergeCell ref="A203:S203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="I204:K204"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="I205:K205"/>
+    <mergeCell ref="I206:K206"/>
+    <mergeCell ref="I207:K207"/>
+    <mergeCell ref="I208:K208"/>
+    <mergeCell ref="R204:S204"/>
+    <mergeCell ref="R205:S205"/>
+    <mergeCell ref="R206:S206"/>
+    <mergeCell ref="R207:S207"/>
+    <mergeCell ref="R208:S208"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="O159:P159"/>
+    <mergeCell ref="Q159:S159"/>
+    <mergeCell ref="O160:P160"/>
+    <mergeCell ref="Q160:S160"/>
+    <mergeCell ref="A159:F160"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I159:M159"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="Q105:S106"/>
+    <mergeCell ref="A105:C107"/>
+    <mergeCell ref="D107:M107"/>
+    <mergeCell ref="A123:S123"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D106:M106"/>
+    <mergeCell ref="D105:M105"/>
+    <mergeCell ref="Q104:S104"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="Q121:S121"/>
+    <mergeCell ref="A114:M114"/>
+    <mergeCell ref="A115:M115"/>
+    <mergeCell ref="O115:P115"/>
+    <mergeCell ref="Q112:S112"/>
+    <mergeCell ref="A116:M116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="A118:M118"/>
+    <mergeCell ref="O118:P118"/>
+    <mergeCell ref="Q114:S118"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E111:M111"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="E112:M112"/>
+    <mergeCell ref="E113:M113"/>
+    <mergeCell ref="O111:P111"/>
+    <mergeCell ref="O112:P112"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="A102:S102"/>
+    <mergeCell ref="Q103:S103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="Q97:S98"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="A99:M99"/>
+    <mergeCell ref="A100:M100"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="A95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="A92:M92"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="A89:M89"/>
+    <mergeCell ref="A91:M91"/>
+    <mergeCell ref="A93:M93"/>
+    <mergeCell ref="A86:M86"/>
+    <mergeCell ref="A87:M87"/>
+    <mergeCell ref="A88:M88"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="A81:S81"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="Q83:S85"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="G84:M84"/>
+    <mergeCell ref="G85:M85"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="A82:M82"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q58:S59"/>
+    <mergeCell ref="Q60:S62"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="A51:S51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A60:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E55:M55"/>
+    <mergeCell ref="E56:M56"/>
+    <mergeCell ref="E57:M57"/>
+    <mergeCell ref="E63:M63"/>
+    <mergeCell ref="E60:M62"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q42:S43"/>
+    <mergeCell ref="Q44:S46"/>
+    <mergeCell ref="A44:D46"/>
+    <mergeCell ref="A48:D50"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E37:M37"/>
+    <mergeCell ref="E38:M38"/>
+    <mergeCell ref="E39:M39"/>
+    <mergeCell ref="E40:M40"/>
+    <mergeCell ref="E41:M41"/>
+    <mergeCell ref="E42:M43"/>
+    <mergeCell ref="E44:M46"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E47:M47"/>
+    <mergeCell ref="E52:M52"/>
+    <mergeCell ref="E53:M53"/>
+    <mergeCell ref="E54:M54"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="E29:M30"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q29:S30"/>
+    <mergeCell ref="E35:M35"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="E36:M36"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="E31:M31"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="A29:D32"/>
+    <mergeCell ref="A34:S34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E2:S2"/>
+    <mergeCell ref="E3:S3"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="E22:M24"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="A22:D25"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q22:S25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="D132:M132"/>
+    <mergeCell ref="O125:P125"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="O127:P127"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="O129:P129"/>
+    <mergeCell ref="O130:P130"/>
+    <mergeCell ref="O131:P131"/>
+    <mergeCell ref="O132:P132"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="Q128:S128"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="Q130:S130"/>
+    <mergeCell ref="Q131:S131"/>
+    <mergeCell ref="Q132:S132"/>
+    <mergeCell ref="D124:M124"/>
+    <mergeCell ref="A134:S134"/>
+    <mergeCell ref="Q135:S135"/>
+    <mergeCell ref="O135:P135"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C126"/>
+    <mergeCell ref="A127:C129"/>
+    <mergeCell ref="A130:C132"/>
+    <mergeCell ref="D125:M125"/>
+    <mergeCell ref="D126:M126"/>
+    <mergeCell ref="D129:M129"/>
+    <mergeCell ref="D128:M128"/>
+    <mergeCell ref="D127:M127"/>
+    <mergeCell ref="D130:M130"/>
+    <mergeCell ref="D131:M131"/>
+    <mergeCell ref="A136:C137"/>
+    <mergeCell ref="A138:C140"/>
+    <mergeCell ref="A141:C143"/>
+    <mergeCell ref="D135:M135"/>
+    <mergeCell ref="D136:M136"/>
+    <mergeCell ref="D137:M137"/>
+    <mergeCell ref="D138:M138"/>
+    <mergeCell ref="O136:P136"/>
+    <mergeCell ref="O137:P137"/>
+    <mergeCell ref="O138:P138"/>
+    <mergeCell ref="O139:P139"/>
+    <mergeCell ref="O140:P140"/>
+    <mergeCell ref="O141:P141"/>
+    <mergeCell ref="O142:P142"/>
+    <mergeCell ref="O143:P143"/>
+    <mergeCell ref="Q136:S136"/>
+    <mergeCell ref="Q137:S137"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="Q140:S140"/>
+    <mergeCell ref="Q141:S141"/>
+    <mergeCell ref="Q142:S142"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="D139:M139"/>
+    <mergeCell ref="D140:M140"/>
+    <mergeCell ref="D141:M141"/>
+    <mergeCell ref="D142:M142"/>
+    <mergeCell ref="D143:M143"/>
+    <mergeCell ref="A145:S145"/>
+    <mergeCell ref="Q146:S146"/>
+    <mergeCell ref="O146:P146"/>
+    <mergeCell ref="A146:H146"/>
+    <mergeCell ref="A147:H147"/>
+    <mergeCell ref="I146:M146"/>
+    <mergeCell ref="Q147:S147"/>
+    <mergeCell ref="Q148:S148"/>
+    <mergeCell ref="Q149:S149"/>
+    <mergeCell ref="A148:F150"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="Q150:S150"/>
+    <mergeCell ref="I147:M147"/>
+    <mergeCell ref="I148:M148"/>
+    <mergeCell ref="I149:M149"/>
+    <mergeCell ref="I150:M150"/>
+    <mergeCell ref="O147:P147"/>
+    <mergeCell ref="O148:P148"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="O150:P150"/>
+    <mergeCell ref="I157:M157"/>
+    <mergeCell ref="I158:M158"/>
+    <mergeCell ref="Q151:S151"/>
+    <mergeCell ref="A151:F152"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="I151:M151"/>
+    <mergeCell ref="I152:M152"/>
+    <mergeCell ref="A153:F154"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="O152:P152"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="O154:P154"/>
+    <mergeCell ref="I153:M153"/>
+    <mergeCell ref="I154:M154"/>
+    <mergeCell ref="Q152:S152"/>
+    <mergeCell ref="Q153:S153"/>
+    <mergeCell ref="Q154:S154"/>
+    <mergeCell ref="A170:M170"/>
+    <mergeCell ref="A169:M169"/>
+    <mergeCell ref="A168:M168"/>
+    <mergeCell ref="A167:M167"/>
+    <mergeCell ref="A163:M163"/>
+    <mergeCell ref="Q161:S161"/>
+    <mergeCell ref="Q162:S162"/>
+    <mergeCell ref="O155:P155"/>
+    <mergeCell ref="O156:P156"/>
+    <mergeCell ref="O157:P157"/>
+    <mergeCell ref="O158:P158"/>
+    <mergeCell ref="Q155:S155"/>
+    <mergeCell ref="Q156:S156"/>
+    <mergeCell ref="Q157:S157"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="I160:M160"/>
+    <mergeCell ref="A155:F156"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A157:F158"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I155:M155"/>
+    <mergeCell ref="I156:M156"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="O162:P162"/>
+    <mergeCell ref="O167:P167"/>
+    <mergeCell ref="O161:P161"/>
+    <mergeCell ref="A165:S165"/>
+    <mergeCell ref="O166:P166"/>
+    <mergeCell ref="Q166:S166"/>
+    <mergeCell ref="A166:M166"/>
+    <mergeCell ref="G161:M161"/>
+    <mergeCell ref="G162:M162"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="A162:F162"/>
+    <mergeCell ref="Q176:S176"/>
+    <mergeCell ref="Q177:S177"/>
+    <mergeCell ref="A180:F180"/>
+    <mergeCell ref="G174:M174"/>
+    <mergeCell ref="G175:M175"/>
+    <mergeCell ref="G177:M177"/>
+    <mergeCell ref="G178:M178"/>
+    <mergeCell ref="G180:M180"/>
+    <mergeCell ref="G181:M181"/>
+    <mergeCell ref="A176:M176"/>
+    <mergeCell ref="A179:M179"/>
+    <mergeCell ref="A174:F174"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A177:F177"/>
+    <mergeCell ref="A178:F178"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="O177:P177"/>
+    <mergeCell ref="Q174:S174"/>
+    <mergeCell ref="Q175:S175"/>
+    <mergeCell ref="D119:M119"/>
+    <mergeCell ref="O119:P119"/>
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="G77:M77"/>
+    <mergeCell ref="G71:M71"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E58:M59"/>
+    <mergeCell ref="E64:M66"/>
+    <mergeCell ref="G69:M69"/>
+    <mergeCell ref="G70:M70"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="A64:D66"/>
+    <mergeCell ref="A68:S68"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G74:M74"/>
+    <mergeCell ref="G75:M75"/>
+    <mergeCell ref="A182:M182"/>
+    <mergeCell ref="E48:M50"/>
+    <mergeCell ref="D120:M120"/>
+    <mergeCell ref="D121:M121"/>
+    <mergeCell ref="Q178:S178"/>
+    <mergeCell ref="Q179:S179"/>
+    <mergeCell ref="Q180:S180"/>
+    <mergeCell ref="Q181:S181"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="O181:P181"/>
+    <mergeCell ref="O180:P180"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="Q163:S163"/>
+    <mergeCell ref="Q167:S167"/>
+    <mergeCell ref="Q168:S168"/>
+    <mergeCell ref="O173:P173"/>
+    <mergeCell ref="Q119:S119"/>
+    <mergeCell ref="Q120:S120"/>
+    <mergeCell ref="A117:M117"/>
+    <mergeCell ref="O117:P117"/>
+    <mergeCell ref="O110:P110"/>
+    <mergeCell ref="Q110:S110"/>
+    <mergeCell ref="F96:M96"/>
+    <mergeCell ref="F97:M97"/>
+    <mergeCell ref="F98:M98"/>
+    <mergeCell ref="D103:M103"/>
+    <mergeCell ref="D104:M104"/>
+    <mergeCell ref="A109:S109"/>
+    <mergeCell ref="G172:M172"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="O171:P171"/>
+    <mergeCell ref="O169:P169"/>
+    <mergeCell ref="O170:P170"/>
+    <mergeCell ref="O168:P168"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="Q169:S169"/>
+    <mergeCell ref="Q170:S170"/>
+    <mergeCell ref="Q171:S171"/>
+    <mergeCell ref="Q172:S172"/>
+    <mergeCell ref="G171:M171"/>
+    <mergeCell ref="O114:P114"/>
+    <mergeCell ref="Q111:S111"/>
+    <mergeCell ref="A119:C121"/>
+    <mergeCell ref="Q86:S90"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="O83:P83"/>
     <mergeCell ref="A209:E209"/>
     <mergeCell ref="G209:H209"/>
     <mergeCell ref="L209:M209"/>
@@ -9384,579 +9777,6 @@
     <mergeCell ref="O176:P176"/>
     <mergeCell ref="O175:P175"/>
     <mergeCell ref="O174:P174"/>
-    <mergeCell ref="Q86:S90"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="F96:M96"/>
-    <mergeCell ref="F97:M97"/>
-    <mergeCell ref="F98:M98"/>
-    <mergeCell ref="D103:M103"/>
-    <mergeCell ref="D104:M104"/>
-    <mergeCell ref="A109:S109"/>
-    <mergeCell ref="G172:M172"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="O171:P171"/>
-    <mergeCell ref="O169:P169"/>
-    <mergeCell ref="O170:P170"/>
-    <mergeCell ref="O168:P168"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="Q169:S169"/>
-    <mergeCell ref="Q170:S170"/>
-    <mergeCell ref="Q171:S171"/>
-    <mergeCell ref="Q172:S172"/>
-    <mergeCell ref="G171:M171"/>
-    <mergeCell ref="O114:P114"/>
-    <mergeCell ref="Q111:S111"/>
-    <mergeCell ref="A119:C121"/>
-    <mergeCell ref="A182:M182"/>
-    <mergeCell ref="E48:M50"/>
-    <mergeCell ref="D120:M120"/>
-    <mergeCell ref="D121:M121"/>
-    <mergeCell ref="Q178:S178"/>
-    <mergeCell ref="Q179:S179"/>
-    <mergeCell ref="Q180:S180"/>
-    <mergeCell ref="Q181:S181"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="O181:P181"/>
-    <mergeCell ref="O180:P180"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="Q163:S163"/>
-    <mergeCell ref="Q167:S167"/>
-    <mergeCell ref="Q168:S168"/>
-    <mergeCell ref="O173:P173"/>
-    <mergeCell ref="Q119:S119"/>
-    <mergeCell ref="Q120:S120"/>
-    <mergeCell ref="A117:M117"/>
-    <mergeCell ref="O117:P117"/>
-    <mergeCell ref="O110:P110"/>
-    <mergeCell ref="Q110:S110"/>
-    <mergeCell ref="D119:M119"/>
-    <mergeCell ref="O119:P119"/>
-    <mergeCell ref="G76:M76"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="G71:M71"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E58:M59"/>
-    <mergeCell ref="E64:M66"/>
-    <mergeCell ref="G69:M69"/>
-    <mergeCell ref="G70:M70"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="A64:D66"/>
-    <mergeCell ref="A68:S68"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G74:M74"/>
-    <mergeCell ref="G75:M75"/>
-    <mergeCell ref="Q176:S176"/>
-    <mergeCell ref="Q177:S177"/>
-    <mergeCell ref="A180:F180"/>
-    <mergeCell ref="G174:M174"/>
-    <mergeCell ref="G175:M175"/>
-    <mergeCell ref="G177:M177"/>
-    <mergeCell ref="G178:M178"/>
-    <mergeCell ref="G180:M180"/>
-    <mergeCell ref="G181:M181"/>
-    <mergeCell ref="A176:M176"/>
-    <mergeCell ref="A179:M179"/>
-    <mergeCell ref="A174:F174"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A177:F177"/>
-    <mergeCell ref="A178:F178"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="O177:P177"/>
-    <mergeCell ref="Q174:S174"/>
-    <mergeCell ref="Q175:S175"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="O162:P162"/>
-    <mergeCell ref="O167:P167"/>
-    <mergeCell ref="O161:P161"/>
-    <mergeCell ref="A165:S165"/>
-    <mergeCell ref="O166:P166"/>
-    <mergeCell ref="Q166:S166"/>
-    <mergeCell ref="A166:M166"/>
-    <mergeCell ref="G161:M161"/>
-    <mergeCell ref="G162:M162"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="A162:F162"/>
-    <mergeCell ref="A170:M170"/>
-    <mergeCell ref="A169:M169"/>
-    <mergeCell ref="A168:M168"/>
-    <mergeCell ref="A167:M167"/>
-    <mergeCell ref="A163:M163"/>
-    <mergeCell ref="Q161:S161"/>
-    <mergeCell ref="Q162:S162"/>
-    <mergeCell ref="O155:P155"/>
-    <mergeCell ref="O156:P156"/>
-    <mergeCell ref="O157:P157"/>
-    <mergeCell ref="O158:P158"/>
-    <mergeCell ref="Q155:S155"/>
-    <mergeCell ref="Q156:S156"/>
-    <mergeCell ref="Q157:S157"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="I160:M160"/>
-    <mergeCell ref="A155:F156"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A157:F158"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="I155:M155"/>
-    <mergeCell ref="I156:M156"/>
-    <mergeCell ref="I157:M157"/>
-    <mergeCell ref="I158:M158"/>
-    <mergeCell ref="Q151:S151"/>
-    <mergeCell ref="A151:F152"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="I151:M151"/>
-    <mergeCell ref="I152:M152"/>
-    <mergeCell ref="A153:F154"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="O152:P152"/>
-    <mergeCell ref="O153:P153"/>
-    <mergeCell ref="O154:P154"/>
-    <mergeCell ref="I153:M153"/>
-    <mergeCell ref="I154:M154"/>
-    <mergeCell ref="Q152:S152"/>
-    <mergeCell ref="Q153:S153"/>
-    <mergeCell ref="Q154:S154"/>
-    <mergeCell ref="A145:S145"/>
-    <mergeCell ref="Q146:S146"/>
-    <mergeCell ref="O146:P146"/>
-    <mergeCell ref="A146:H146"/>
-    <mergeCell ref="A147:H147"/>
-    <mergeCell ref="I146:M146"/>
-    <mergeCell ref="Q147:S147"/>
-    <mergeCell ref="Q148:S148"/>
-    <mergeCell ref="Q149:S149"/>
-    <mergeCell ref="A148:F150"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="Q150:S150"/>
-    <mergeCell ref="I147:M147"/>
-    <mergeCell ref="I148:M148"/>
-    <mergeCell ref="I149:M149"/>
-    <mergeCell ref="I150:M150"/>
-    <mergeCell ref="O147:P147"/>
-    <mergeCell ref="O148:P148"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="O150:P150"/>
-    <mergeCell ref="Q136:S136"/>
-    <mergeCell ref="Q137:S137"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="Q140:S140"/>
-    <mergeCell ref="Q141:S141"/>
-    <mergeCell ref="Q142:S142"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="D139:M139"/>
-    <mergeCell ref="D140:M140"/>
-    <mergeCell ref="D141:M141"/>
-    <mergeCell ref="D142:M142"/>
-    <mergeCell ref="D143:M143"/>
-    <mergeCell ref="A136:C137"/>
-    <mergeCell ref="A138:C140"/>
-    <mergeCell ref="A141:C143"/>
-    <mergeCell ref="D135:M135"/>
-    <mergeCell ref="D136:M136"/>
-    <mergeCell ref="D137:M137"/>
-    <mergeCell ref="D138:M138"/>
-    <mergeCell ref="O136:P136"/>
-    <mergeCell ref="O137:P137"/>
-    <mergeCell ref="O138:P138"/>
-    <mergeCell ref="O139:P139"/>
-    <mergeCell ref="O140:P140"/>
-    <mergeCell ref="O141:P141"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="O143:P143"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="Q128:S128"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="Q130:S130"/>
-    <mergeCell ref="Q131:S131"/>
-    <mergeCell ref="Q132:S132"/>
-    <mergeCell ref="D124:M124"/>
-    <mergeCell ref="A134:S134"/>
-    <mergeCell ref="Q135:S135"/>
-    <mergeCell ref="O135:P135"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="O124:P124"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C126"/>
-    <mergeCell ref="A127:C129"/>
-    <mergeCell ref="A130:C132"/>
-    <mergeCell ref="D125:M125"/>
-    <mergeCell ref="D126:M126"/>
-    <mergeCell ref="D129:M129"/>
-    <mergeCell ref="D128:M128"/>
-    <mergeCell ref="D127:M127"/>
-    <mergeCell ref="D130:M130"/>
-    <mergeCell ref="D131:M131"/>
-    <mergeCell ref="D132:M132"/>
-    <mergeCell ref="O125:P125"/>
-    <mergeCell ref="O126:P126"/>
-    <mergeCell ref="O127:P127"/>
-    <mergeCell ref="O128:P128"/>
-    <mergeCell ref="O129:P129"/>
-    <mergeCell ref="O130:P130"/>
-    <mergeCell ref="O131:P131"/>
-    <mergeCell ref="O132:P132"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="A22:D25"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q22:S25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E2:S2"/>
-    <mergeCell ref="E3:S3"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="E22:M24"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="E29:M30"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q29:S30"/>
-    <mergeCell ref="E35:M35"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="E36:M36"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="E31:M31"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="A29:D32"/>
-    <mergeCell ref="A34:S34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A44:D46"/>
-    <mergeCell ref="A48:D50"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E37:M37"/>
-    <mergeCell ref="E38:M38"/>
-    <mergeCell ref="E39:M39"/>
-    <mergeCell ref="E40:M40"/>
-    <mergeCell ref="E41:M41"/>
-    <mergeCell ref="E42:M43"/>
-    <mergeCell ref="E44:M46"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E47:M47"/>
-    <mergeCell ref="E52:M52"/>
-    <mergeCell ref="E53:M53"/>
-    <mergeCell ref="E54:M54"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q42:S43"/>
-    <mergeCell ref="Q44:S46"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="A51:S51"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A60:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E55:M55"/>
-    <mergeCell ref="E56:M56"/>
-    <mergeCell ref="E57:M57"/>
-    <mergeCell ref="E63:M63"/>
-    <mergeCell ref="E60:M62"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q58:S59"/>
-    <mergeCell ref="Q60:S62"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="Q83:S85"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="G84:M84"/>
-    <mergeCell ref="G85:M85"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="A82:M82"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="A90:M90"/>
-    <mergeCell ref="A92:M92"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="A89:M89"/>
-    <mergeCell ref="A91:M91"/>
-    <mergeCell ref="A93:M93"/>
-    <mergeCell ref="A86:M86"/>
-    <mergeCell ref="A87:M87"/>
-    <mergeCell ref="A88:M88"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="A81:S81"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="A102:S102"/>
-    <mergeCell ref="Q103:S103"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="Q97:S98"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="A99:M99"/>
-    <mergeCell ref="A100:M100"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="O106:P106"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="O120:P120"/>
-    <mergeCell ref="O121:P121"/>
-    <mergeCell ref="Q121:S121"/>
-    <mergeCell ref="A114:M114"/>
-    <mergeCell ref="A115:M115"/>
-    <mergeCell ref="O115:P115"/>
-    <mergeCell ref="Q112:S112"/>
-    <mergeCell ref="A116:M116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="A118:M118"/>
-    <mergeCell ref="O118:P118"/>
-    <mergeCell ref="Q114:S118"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="E111:M111"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="E112:M112"/>
-    <mergeCell ref="E113:M113"/>
-    <mergeCell ref="O111:P111"/>
-    <mergeCell ref="O112:P112"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="O159:P159"/>
-    <mergeCell ref="Q159:S159"/>
-    <mergeCell ref="O160:P160"/>
-    <mergeCell ref="Q160:S160"/>
-    <mergeCell ref="A159:F160"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="I159:M159"/>
-    <mergeCell ref="O107:P107"/>
-    <mergeCell ref="Q105:S106"/>
-    <mergeCell ref="A105:C107"/>
-    <mergeCell ref="D107:M107"/>
-    <mergeCell ref="A123:S123"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D106:M106"/>
-    <mergeCell ref="D105:M105"/>
-    <mergeCell ref="Q104:S104"/>
-    <mergeCell ref="O104:P104"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="A203:S203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="I204:K204"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="I205:K205"/>
-    <mergeCell ref="I206:K206"/>
-    <mergeCell ref="I207:K207"/>
-    <mergeCell ref="I208:K208"/>
-    <mergeCell ref="R204:S204"/>
-    <mergeCell ref="R205:S205"/>
-    <mergeCell ref="R206:S206"/>
-    <mergeCell ref="R207:S207"/>
-    <mergeCell ref="R208:S208"/>
-    <mergeCell ref="A184:S184"/>
-    <mergeCell ref="A185:M185"/>
-    <mergeCell ref="O185:P185"/>
-    <mergeCell ref="Q185:S185"/>
-    <mergeCell ref="A186:M186"/>
-    <mergeCell ref="O186:P186"/>
-    <mergeCell ref="Q186:S186"/>
-    <mergeCell ref="A187:M187"/>
-    <mergeCell ref="O187:P187"/>
-    <mergeCell ref="Q187:S187"/>
-    <mergeCell ref="A188:M188"/>
-    <mergeCell ref="O188:P188"/>
-    <mergeCell ref="Q188:S188"/>
-    <mergeCell ref="A189:M189"/>
-    <mergeCell ref="O189:P189"/>
-    <mergeCell ref="Q189:S189"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="G190:M190"/>
-    <mergeCell ref="O190:P190"/>
-    <mergeCell ref="Q190:S190"/>
-    <mergeCell ref="A191:F191"/>
-    <mergeCell ref="G191:M191"/>
-    <mergeCell ref="O191:P191"/>
-    <mergeCell ref="Q191:S191"/>
-    <mergeCell ref="A192:M192"/>
-    <mergeCell ref="O192:P192"/>
-    <mergeCell ref="Q192:S192"/>
-    <mergeCell ref="A193:F193"/>
-    <mergeCell ref="G193:M193"/>
-    <mergeCell ref="O193:P193"/>
-    <mergeCell ref="Q193:S193"/>
-    <mergeCell ref="A194:F194"/>
-    <mergeCell ref="G194:M194"/>
-    <mergeCell ref="O194:P194"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="A195:M195"/>
-    <mergeCell ref="O195:P195"/>
-    <mergeCell ref="Q195:S195"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="G196:M196"/>
-    <mergeCell ref="O196:P196"/>
-    <mergeCell ref="Q196:S196"/>
-    <mergeCell ref="A200:F200"/>
-    <mergeCell ref="G200:M200"/>
-    <mergeCell ref="O200:P200"/>
-    <mergeCell ref="Q200:S200"/>
-    <mergeCell ref="A201:M201"/>
-    <mergeCell ref="O201:P201"/>
-    <mergeCell ref="Q201:S201"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="G197:M197"/>
-    <mergeCell ref="O197:P197"/>
-    <mergeCell ref="Q197:S197"/>
-    <mergeCell ref="A198:M198"/>
-    <mergeCell ref="O198:P198"/>
-    <mergeCell ref="Q198:S198"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="G199:M199"/>
-    <mergeCell ref="O199:P199"/>
-    <mergeCell ref="Q199:S199"/>
   </mergeCells>
   <conditionalFormatting sqref="G205:H205">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
@@ -9983,7 +9803,7 @@
       <formula>$L$205</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:M24">
       <formula1>"Estudo com formato prismático simples,Estudo com formato prismático complexo"</formula1>
     </dataValidation>
@@ -10008,7 +9828,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="24">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="24">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dados!$A$3:$A$6</xm:f>
@@ -10161,10 +9981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:S94"/>
+  <dimension ref="A5:S93"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:M14"/>
+      <selection activeCell="G85" sqref="G85:M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10172,2313 +9992,2442 @@
     <col min="1" max="16384" width="4.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:19" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-    </row>
-    <row r="6" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+    </row>
+    <row r="6" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="19" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33" t="s">
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-    </row>
-    <row r="7" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+    </row>
+    <row r="7" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="34" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="19" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="22">
         <f>VLOOKUP(G7,Dados!P2:Q8,2,0)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="33" t="s">
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-    </row>
-    <row r="8" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+    </row>
+    <row r="8" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="19" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="22">
         <f>VLOOKUP(G8,Dados!M3:N7,2,0)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33" t="s">
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-    </row>
-    <row r="9" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+    </row>
+    <row r="9" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="19" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="22">
         <f>VLOOKUP(G9,Dados!AC3:AD6,2,0)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33" t="s">
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-    </row>
-    <row r="10" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="19" t="s">
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="22">
         <f>VLOOKUP(G10,Dados!BF3:BG5,2,0)</f>
         <v>0.5</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33" t="s">
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-    </row>
-    <row r="11" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+    </row>
+    <row r="11" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="19" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="22">
         <f>VLOOKUP(G11,Dados!AF3:AG7,2,0)</f>
         <v>0.05</v>
       </c>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33" t="s">
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-    </row>
-    <row r="12" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="50" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="19" t="s">
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="22">
         <f>VLOOKUP(G12,Dados!Z3:AA6,2,0)</f>
         <v>1E-4</v>
       </c>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33" t="s">
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-    </row>
-    <row r="13" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33" t="s">
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+    </row>
+    <row r="13" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="19" t="s">
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="22">
         <f>VLOOKUP(G13,Dados!S3:T7,2,0)</f>
         <v>0.02</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33" t="s">
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-    </row>
-    <row r="14" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+    </row>
+    <row r="14" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="50" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="19" t="s">
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="22">
         <f>VLOOKUP(G14,Dados!Z3:AA6,2,0)</f>
         <v>1E-4</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33" t="s">
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-    </row>
-    <row r="15" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33" t="s">
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+    </row>
+    <row r="15" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="19" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="22">
         <f>VLOOKUP(G15,Dados!S3:T7,2,0)</f>
         <v>0.02</v>
       </c>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33" t="s">
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-    </row>
-    <row r="16" spans="1:19" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:19" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+    </row>
+    <row r="20" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="36"/>
-    </row>
-    <row r="21" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+    </row>
+    <row r="21" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="19" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34" t="s">
+      <c r="M21" s="22"/>
+      <c r="N21" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="36"/>
-    </row>
-    <row r="22" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+    </row>
+    <row r="22" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="19" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="23">
         <f>O59+O60+O61+O62+O68+O71+O74</f>
         <v>1.2631242201287073E-6</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33" t="s">
+      <c r="H22" s="22"/>
+      <c r="I22" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="51">
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="24">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="34" t="str">
+      <c r="M22" s="24"/>
+      <c r="N22" s="22" t="str">
         <f>IF(G22&gt;L22,"Não","Sim")</f>
         <v>Sim</v>
       </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="36"/>
-    </row>
-    <row r="23" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+    </row>
+    <row r="23" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="19" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="23">
         <v>0</v>
       </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="33" t="s">
+      <c r="H23" s="23"/>
+      <c r="I23" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="51">
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="24">
         <v>1E-3</v>
       </c>
-      <c r="M23" s="51"/>
-      <c r="N23" s="34" t="str">
+      <c r="M23" s="24"/>
+      <c r="N23" s="22" t="str">
         <f>IF(Relatório!R205="Sim",IF(G23&gt;L23,"Não","Sim"),"Não estudado")</f>
         <v>Não estudado</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="36"/>
-    </row>
-    <row r="24" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+    </row>
+    <row r="24" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="19" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="23">
         <v>0</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="33" t="s">
+      <c r="H24" s="23"/>
+      <c r="I24" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="51">
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="24">
         <v>1E-4</v>
       </c>
-      <c r="M24" s="51"/>
-      <c r="N24" s="34" t="str">
+      <c r="M24" s="24"/>
+      <c r="N24" s="22" t="str">
         <f>IF(Relatório!R206="Sim",IF(G24&gt;L24,"Não","Sim"),"Não estudado")</f>
         <v>Não estudado</v>
       </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="36"/>
-    </row>
-    <row r="25" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+    </row>
+    <row r="25" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="19" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="23">
         <f>O78+O79+O80+O81+O84+O87+O90+O93</f>
         <v>0</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="33" t="s">
+      <c r="H25" s="23"/>
+      <c r="I25" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="51">
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="24">
         <v>1E-3</v>
       </c>
-      <c r="M25" s="51"/>
-      <c r="N25" s="34" t="str">
+      <c r="M25" s="24"/>
+      <c r="N25" s="22" t="str">
         <f>IF(Relatório!R208="Sim",IF(G25&gt;L25,"Não","Sim"),"Não estudado")</f>
         <v>Não estudado</v>
       </c>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="36"/>
-    </row>
-    <row r="26" spans="1:19" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:19" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+    </row>
+    <row r="37" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-    </row>
-    <row r="38" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+    </row>
+    <row r="38" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="19" t="s">
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O38" s="33" t="s">
+      <c r="O38" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33" t="s">
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-    </row>
-    <row r="39" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+    </row>
+    <row r="39" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="19" t="s">
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="O39" s="37">
+      <c r="O39" s="23">
         <f>O8*Relatório!O27</f>
         <v>0</v>
       </c>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="33" t="s">
+      <c r="P39" s="23"/>
+      <c r="Q39" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-    </row>
-    <row r="40" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+    </row>
+    <row r="40" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="34" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="33" t="s">
+      <c r="H40" s="22"/>
+      <c r="I40" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="19" t="s">
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="O40" s="37">
+      <c r="O40" s="23">
         <f>O13*Relatório!O42</f>
         <v>0.02</v>
       </c>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="33" t="s">
+      <c r="P40" s="23"/>
+      <c r="Q40" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-    </row>
-    <row r="41" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="34" t="s">
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+    </row>
+    <row r="41" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="33" t="s">
+      <c r="H41" s="22"/>
+      <c r="I41" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="19" t="s">
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="O41" s="37">
+      <c r="O41" s="23">
         <f>O15*Relatório!O58</f>
         <v>0</v>
       </c>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="33" t="s">
+      <c r="P41" s="23"/>
+      <c r="Q41" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-    </row>
-    <row r="42" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="34" t="s">
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+    </row>
+    <row r="42" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="H42" s="36"/>
-      <c r="I42" s="33" t="s">
+      <c r="H42" s="22"/>
+      <c r="I42" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="19" t="s">
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="O42" s="37">
+      <c r="O42" s="23">
         <f>1-(1-O40)*(1-O41)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="33" t="s">
+      <c r="P42" s="23"/>
+      <c r="Q42" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-    </row>
-    <row r="43" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48" t="s">
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+    </row>
+    <row r="43" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="33" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33" t="s">
+      <c r="H43" s="22"/>
+      <c r="I43" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="19" t="s">
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="O43" s="37">
+      <c r="O43" s="23">
         <f>O13*O53</f>
         <v>3.3333333333333335E-7</v>
       </c>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="33" t="s">
+      <c r="P43" s="23"/>
+      <c r="Q43" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-    </row>
-    <row r="44" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="33" t="s">
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+    </row>
+    <row r="44" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33" t="s">
+      <c r="H44" s="22"/>
+      <c r="I44" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="19" t="s">
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="O44" s="37">
+      <c r="O44" s="23">
         <f>O15*O54</f>
         <v>3.3333333333333335E-7</v>
       </c>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="33" t="s">
+      <c r="P44" s="23"/>
+      <c r="Q44" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-    </row>
-    <row r="45" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="48" t="s">
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+    </row>
+    <row r="45" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="33" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33" t="s">
+      <c r="H45" s="22"/>
+      <c r="I45" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="19" t="s">
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="O45" s="37">
+      <c r="O45" s="23">
         <f>O9*O11*Relatório!O50*Relatório!O42</f>
         <v>0</v>
       </c>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="33" t="s">
+      <c r="P45" s="23"/>
+      <c r="Q45" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-    </row>
-    <row r="46" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="33" t="s">
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+    </row>
+    <row r="46" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33" t="s">
+      <c r="H46" s="22"/>
+      <c r="I46" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="19" t="s">
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="O46" s="37">
+      <c r="O46" s="23">
         <f>O9*O11*Relatório!O66*Relatório!O58</f>
         <v>0</v>
       </c>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="33" t="s">
+      <c r="P46" s="23"/>
+      <c r="Q46" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-    </row>
-    <row r="47" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="48" t="s">
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+    </row>
+    <row r="47" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="33" t="s">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33" t="s">
+      <c r="H47" s="22"/>
+      <c r="I47" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="19" t="s">
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="O47" s="37">
+      <c r="O47" s="23">
         <f>O13*Relatório!O50*Relatório!O38</f>
         <v>0.01</v>
       </c>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="33" t="s">
+      <c r="P47" s="23"/>
+      <c r="Q47" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-    </row>
-    <row r="48" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="33" t="s">
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+    </row>
+    <row r="48" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33" t="s">
+      <c r="H48" s="22"/>
+      <c r="I48" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="19" t="s">
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="O48" s="37">
+      <c r="O48" s="23">
         <f>O15*Relatório!O66*Relatório!O54</f>
         <v>0.01</v>
       </c>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="33" t="s">
+      <c r="P48" s="23"/>
+      <c r="Q48" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-    </row>
-    <row r="49" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="48" t="s">
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+    </row>
+    <row r="49" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="33" t="s">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33" t="s">
+      <c r="H49" s="22"/>
+      <c r="I49" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="19" t="s">
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="O49" s="37">
+      <c r="O49" s="23">
         <f>O13*Relatório!O36*Relatório!O43</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="33" t="s">
+      <c r="P49" s="23"/>
+      <c r="Q49" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-    </row>
-    <row r="50" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="33" t="s">
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+    </row>
+    <row r="50" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33" t="s">
+      <c r="H50" s="22"/>
+      <c r="I50" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="19" t="s">
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="O50" s="37">
+      <c r="O50" s="23">
         <f>O15*Relatório!O52*Relatório!O59</f>
         <v>0</v>
       </c>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="33" t="s">
+      <c r="P50" s="23"/>
+      <c r="Q50" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-    </row>
-    <row r="51" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="48" t="s">
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+    </row>
+    <row r="51" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="34" t="s">
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H51" s="36"/>
-      <c r="I51" s="34" t="s">
+      <c r="H51" s="22"/>
+      <c r="I51" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="19" t="s">
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="O51" s="37">
+      <c r="O51" s="23">
         <f>O11*Relatório!O50*Relatório!O42</f>
         <v>0.05</v>
       </c>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="33" t="s">
+      <c r="P51" s="23"/>
+      <c r="Q51" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-    </row>
-    <row r="52" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="34" t="s">
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+    </row>
+    <row r="52" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="34" t="s">
+      <c r="H52" s="22"/>
+      <c r="I52" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="19" t="s">
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="O52" s="37">
+      <c r="O52" s="23">
         <f>O11*Relatório!O66*Relatório!O58</f>
         <v>0</v>
       </c>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="33" t="s">
+      <c r="P52" s="23"/>
+      <c r="Q52" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-    </row>
-    <row r="53" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+    </row>
+    <row r="53" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33" t="s">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="19" t="s">
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="O53" s="37">
+      <c r="O53" s="23">
         <f>(Relatório!O31*Relatório!O32*O12*Relatório!O49)</f>
         <v>1.6666666666666667E-5</v>
       </c>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="33" t="s">
+      <c r="P53" s="23"/>
+      <c r="Q53" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-    </row>
-    <row r="54" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+    </row>
+    <row r="54" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33" t="s">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="19" t="s">
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="O54" s="37">
+      <c r="O54" s="23">
         <f>(Relatório!O31*Relatório!O32*O14*Relatório!O49)</f>
         <v>1.6666666666666667E-5</v>
       </c>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="33" t="s">
+      <c r="P54" s="23"/>
+      <c r="Q54" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-    </row>
-    <row r="55" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+    </row>
+    <row r="55" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="19" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="O55" s="37">
+      <c r="O55" s="23">
         <f>1-(1-O43)*(1-O44)</f>
         <v>6.6666655562652721E-7</v>
       </c>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="33" t="s">
+      <c r="P55" s="23"/>
+      <c r="Q55" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-    </row>
-    <row r="56" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+    </row>
+    <row r="57" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-    </row>
-    <row r="58" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+    </row>
+    <row r="58" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="19" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="33" t="s">
+      <c r="O58" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33" t="s">
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-    </row>
-    <row r="59" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33" t="s">
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+    </row>
+    <row r="59" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="19" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="O59" s="49">
+      <c r="O59" s="23">
         <f>Relatório!$O$136*$O$39*Relatório!$O$91</f>
         <v>0</v>
       </c>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="33" t="s">
+      <c r="P59" s="23"/>
+      <c r="Q59" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-    </row>
-    <row r="60" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="33" t="s">
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+    </row>
+    <row r="60" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="19" t="s">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="O60" s="49">
+      <c r="O60" s="23">
         <f>Relatório!$O$136*$O$7*Relatório!$O$92</f>
         <v>6.3667062058586402E-7</v>
       </c>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="33" t="s">
+      <c r="P60" s="23"/>
+      <c r="Q60" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-    </row>
-    <row r="61" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+    </row>
+    <row r="61" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="19" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="O61" s="49">
+      <c r="O61" s="23">
         <f>IF(Relatório!R204="Sim",Relatório!$O$136*$O$42*Relatório!$O$93,0)</f>
         <v>5.0933649646869168E-7</v>
       </c>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="33" t="s">
+      <c r="P61" s="23"/>
+      <c r="Q61" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-    </row>
-    <row r="62" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+    </row>
+    <row r="62" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="19" t="s">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="O62" s="49">
+      <c r="O62" s="23">
         <f>IF(Relatório!R204="Sim",Relatório!$O$137*$O$55*Relatório!$O$93,0)</f>
         <v>1.7198428001788242E-9</v>
       </c>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="33" t="s">
+      <c r="P62" s="23"/>
+      <c r="Q62" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-    </row>
-    <row r="63" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+    </row>
+    <row r="63" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="19" t="s">
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="O63" s="49">
+      <c r="O63" s="23">
         <f>(Relatório!$O$138+Relatório!$O$140)*$O$45*Relatório!$O$91</f>
         <v>0</v>
       </c>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="33" t="s">
+      <c r="P63" s="23"/>
+      <c r="Q63" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-    </row>
-    <row r="64" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+    </row>
+    <row r="64" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33" t="s">
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="19" t="s">
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="O64" s="49">
+      <c r="O64" s="23">
         <f>(Relatório!$O$141+Relatório!$O$143)*$O$46*Relatório!$O$91</f>
         <v>0</v>
       </c>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="33" t="s">
+      <c r="P64" s="23"/>
+      <c r="Q64" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-    </row>
-    <row r="65" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+    </row>
+    <row r="65" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="19" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="O65" s="49">
+      <c r="O65" s="23">
         <f>O63+O64</f>
         <v>0</v>
       </c>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="33" t="s">
+      <c r="P65" s="23"/>
+      <c r="Q65" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-    </row>
-    <row r="66" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
+    </row>
+    <row r="66" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33" t="s">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="19" t="s">
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="O66" s="49">
+      <c r="O66" s="23">
         <f>(Relatório!$O$138+Relatório!$O$140)*$O$51*Relatório!$O$92</f>
         <v>1.4246575342465754E-9</v>
       </c>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="33" t="s">
+      <c r="P66" s="23"/>
+      <c r="Q66" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-    </row>
-    <row r="67" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+    </row>
+    <row r="67" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33" t="s">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="19" t="s">
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="O67" s="49">
+      <c r="O67" s="23">
         <f>(Relatório!$O$141+Relatório!$O$143)*$O$52*Relatório!$O$92</f>
         <v>0</v>
       </c>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="33" t="s">
+      <c r="P67" s="23"/>
+      <c r="Q67" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R67" s="33"/>
-      <c r="S67" s="33"/>
-    </row>
-    <row r="68" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+    </row>
+    <row r="68" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="19" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O68" s="49">
+      <c r="O68" s="23">
         <f>O66+O67</f>
         <v>1.4246575342465754E-9</v>
       </c>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="33" t="s">
+      <c r="P68" s="23"/>
+      <c r="Q68" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R68" s="33"/>
-      <c r="S68" s="33"/>
-    </row>
-    <row r="69" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+    </row>
+    <row r="69" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="19" t="s">
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="O69" s="49">
+      <c r="O69" s="23">
         <f>(Relatório!$O$138+Relatório!$O$140)*$O$47*Relatório!$O$93</f>
         <v>1.1397260273972603E-8</v>
       </c>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="33" t="s">
+      <c r="P69" s="23"/>
+      <c r="Q69" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="R69" s="33"/>
-      <c r="S69" s="33"/>
-    </row>
-    <row r="70" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+    </row>
+    <row r="70" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33" t="s">
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="19" t="s">
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="O70" s="49">
+      <c r="O70" s="23">
         <f>(Relatório!$O$141+Relatório!$O$143)*$O$48*Relatório!$O$93</f>
         <v>5.6986301369863016E-8</v>
       </c>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="33" t="s">
+      <c r="P70" s="23"/>
+      <c r="Q70" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="R70" s="33"/>
-      <c r="S70" s="33"/>
-    </row>
-    <row r="71" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
+      <c r="R70" s="22"/>
+      <c r="S70" s="22"/>
+    </row>
+    <row r="71" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="19" t="s">
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="O71" s="49">
+      <c r="O71" s="23">
         <f>IF(Relatório!R204="Sim",O69+O70,0)</f>
         <v>6.8383561643835614E-8</v>
       </c>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="33" t="s">
+      <c r="P71" s="23"/>
+      <c r="Q71" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="R71" s="33"/>
-      <c r="S71" s="33"/>
-    </row>
-    <row r="72" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="33" t="s">
+      <c r="R71" s="22"/>
+      <c r="S71" s="22"/>
+    </row>
+    <row r="72" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33" t="s">
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="19" t="s">
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="O72" s="49">
+      <c r="O72" s="23">
         <f>Relatório!$O$139*$O$49*Relatório!$O$93</f>
         <v>4.5589041095890405E-8</v>
       </c>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="33" t="s">
+      <c r="P72" s="23"/>
+      <c r="Q72" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="R72" s="33"/>
-      <c r="S72" s="33"/>
-    </row>
-    <row r="73" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="33" t="s">
+      <c r="R72" s="22"/>
+      <c r="S72" s="22"/>
+    </row>
+    <row r="73" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33" t="s">
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="19" t="s">
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="O73" s="49">
+      <c r="O73" s="23">
         <f>Relatório!$O$142*$O$50*Relatório!$O$93</f>
         <v>0</v>
       </c>
-      <c r="P73" s="49"/>
-      <c r="Q73" s="33" t="s">
+      <c r="P73" s="23"/>
+      <c r="Q73" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="R73" s="33"/>
-      <c r="S73" s="33"/>
-    </row>
-    <row r="74" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="34" t="s">
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+    </row>
+    <row r="74" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="19" t="s">
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="O74" s="49">
+      <c r="O74" s="23">
         <f>IF(Relatório!R204="Sim",O72+O73,0)</f>
         <v>4.5589041095890405E-8</v>
       </c>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="33" t="s">
+      <c r="P74" s="23"/>
+      <c r="Q74" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="R74" s="33"/>
-      <c r="S74" s="33"/>
-    </row>
-    <row r="75" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="33" t="s">
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+    </row>
+    <row r="76" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="33"/>
-      <c r="R76" s="33"/>
-      <c r="S76" s="33"/>
-    </row>
-    <row r="77" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="34" t="s">
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+    </row>
+    <row r="77" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="19" t="s">
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O77" s="33" t="s">
+      <c r="O77" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P77" s="33"/>
-      <c r="Q77" s="33" t="s">
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="R77" s="33"/>
-      <c r="S77" s="33"/>
-    </row>
-    <row r="78" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+    </row>
+    <row r="78" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="19" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="O78" s="49">
+      <c r="O78" s="23">
         <f>IF(Relatório!R207="Sim",Relatório!$O$136*$O$39*Relatório!O119,0)</f>
         <v>0</v>
       </c>
-      <c r="P78" s="49"/>
-      <c r="Q78" s="33" t="s">
+      <c r="P78" s="23"/>
+      <c r="Q78" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="R78" s="33"/>
-      <c r="S78" s="33"/>
-    </row>
-    <row r="79" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33" t="s">
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
+    </row>
+    <row r="79" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="19" t="s">
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="O79" s="49">
+      <c r="O79" s="23">
         <f>Relatório!$O$136*$O$7*Relatório!O120</f>
         <v>0</v>
       </c>
-      <c r="P79" s="49"/>
-      <c r="Q79" s="33" t="s">
+      <c r="P79" s="23"/>
+      <c r="Q79" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="R79" s="33"/>
-      <c r="S79" s="33"/>
-    </row>
-    <row r="80" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="33" t="s">
+      <c r="R79" s="22"/>
+      <c r="S79" s="22"/>
+    </row>
+    <row r="80" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="19" t="s">
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="O80" s="49">
+      <c r="O80" s="23">
         <f>IF($R$21="Sim",Relatório!$O$136*$O$42*Relatório!O121,0)</f>
         <v>0</v>
       </c>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="33" t="s">
+      <c r="P80" s="23"/>
+      <c r="Q80" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="R80" s="33"/>
-      <c r="S80" s="33"/>
-    </row>
-    <row r="81" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="33" t="s">
+      <c r="R80" s="22"/>
+      <c r="S80" s="22"/>
+    </row>
+    <row r="81" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="19" t="s">
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="O81" s="49">
+      <c r="O81" s="23">
         <f>IF($R$21="Sim",Relatório!$O$137*$O$55*Relatório!O121,0)</f>
         <v>0</v>
       </c>
-      <c r="P81" s="49"/>
-      <c r="Q81" s="33" t="s">
+      <c r="P81" s="23"/>
+      <c r="Q81" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="R81" s="33"/>
-      <c r="S81" s="33"/>
-    </row>
-    <row r="82" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="33" t="s">
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+    </row>
+    <row r="82" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33" t="s">
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="19" t="s">
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="O82" s="49">
+      <c r="O82" s="23">
         <f>(Relatório!$O$138+Relatório!$O$140)*$O$45*Relatório!O119</f>
         <v>0</v>
       </c>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="33" t="s">
+      <c r="P82" s="23"/>
+      <c r="Q82" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="R82" s="33"/>
-      <c r="S82" s="33"/>
-    </row>
-    <row r="83" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="33" t="s">
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+    </row>
+    <row r="83" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33" t="s">
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="33"/>
-      <c r="M83" s="33"/>
-      <c r="N83" s="19" t="s">
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="O83" s="49">
+      <c r="O83" s="23">
         <f>(Relatório!$O$141+Relatório!$O$143)*$O$46*Relatório!O119</f>
         <v>0</v>
       </c>
-      <c r="P83" s="49"/>
-      <c r="Q83" s="33" t="s">
+      <c r="P83" s="23"/>
+      <c r="Q83" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="R83" s="33"/>
-      <c r="S83" s="33"/>
-    </row>
-    <row r="84" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="33" t="s">
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+    </row>
+    <row r="84" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="19" t="s">
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="O84" s="49">
+      <c r="O84" s="23">
         <f>IF(Relatório!R207="Sim",O82+O83,0)</f>
         <v>0</v>
       </c>
-      <c r="P84" s="49"/>
-      <c r="Q84" s="33" t="s">
+      <c r="P84" s="23"/>
+      <c r="Q84" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="R84" s="33"/>
-      <c r="S84" s="33"/>
-    </row>
-    <row r="85" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="33" t="s">
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+    </row>
+    <row r="85" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33" t="s">
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="19" t="s">
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="O85" s="49">
+      <c r="O85" s="23">
         <f>(Relatório!$O$138+Relatório!$O$140)*$O$51*Relatório!O120</f>
         <v>0</v>
       </c>
-      <c r="P85" s="49"/>
-      <c r="Q85" s="33" t="s">
+      <c r="P85" s="23"/>
+      <c r="Q85" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R85" s="33"/>
-      <c r="S85" s="33"/>
-    </row>
-    <row r="86" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="33" t="s">
+      <c r="R85" s="22"/>
+      <c r="S85" s="22"/>
+    </row>
+    <row r="86" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="19" t="s">
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="O86" s="49">
+      <c r="O86" s="23">
         <f>(Relatório!$O$141+Relatório!$O$143)*$O$52*Relatório!O120</f>
         <v>0</v>
       </c>
-      <c r="P86" s="49"/>
-      <c r="Q86" s="33" t="s">
+      <c r="P86" s="23"/>
+      <c r="Q86" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R86" s="33"/>
-      <c r="S86" s="33"/>
-    </row>
-    <row r="87" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="33" t="s">
+      <c r="R86" s="22"/>
+      <c r="S86" s="22"/>
+    </row>
+    <row r="87" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="19" t="s">
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O87" s="49">
+      <c r="O87" s="23">
         <f>O85+O86</f>
         <v>0</v>
       </c>
-      <c r="P87" s="49"/>
-      <c r="Q87" s="33" t="s">
+      <c r="P87" s="23"/>
+      <c r="Q87" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R87" s="33"/>
-      <c r="S87" s="33"/>
-    </row>
-    <row r="88" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="33" t="s">
+      <c r="R87" s="22"/>
+      <c r="S87" s="22"/>
+    </row>
+    <row r="88" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33" t="s">
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="19" t="s">
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="O88" s="49">
+      <c r="O88" s="23">
         <f>(Relatório!$O$138+Relatório!$O$140)*$O$47*Relatório!O121</f>
         <v>0</v>
       </c>
-      <c r="P88" s="49"/>
-      <c r="Q88" s="33" t="s">
+      <c r="P88" s="23"/>
+      <c r="Q88" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="R88" s="33"/>
-      <c r="S88" s="33"/>
-    </row>
-    <row r="89" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="33" t="s">
+      <c r="R88" s="22"/>
+      <c r="S88" s="22"/>
+    </row>
+    <row r="89" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33" t="s">
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="19" t="s">
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="O89" s="49">
+      <c r="O89" s="23">
         <f>(Relatório!$O$141+Relatório!$O$143)*$O$48*Relatório!O121</f>
         <v>0</v>
       </c>
-      <c r="P89" s="49"/>
-      <c r="Q89" s="33" t="s">
+      <c r="P89" s="23"/>
+      <c r="Q89" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="R89" s="33"/>
-      <c r="S89" s="33"/>
-    </row>
-    <row r="90" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="33" t="s">
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+    </row>
+    <row r="90" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="33"/>
-      <c r="N90" s="19" t="s">
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="O90" s="49">
+      <c r="O90" s="23">
         <f>IF($R$21="Sim",O88+O89,0)</f>
         <v>0</v>
       </c>
-      <c r="P90" s="49"/>
-      <c r="Q90" s="33" t="s">
+      <c r="P90" s="23"/>
+      <c r="Q90" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="R90" s="33"/>
-      <c r="S90" s="33"/>
-    </row>
-    <row r="91" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="33" t="s">
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+    </row>
+    <row r="91" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33" t="s">
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33"/>
-      <c r="N91" s="19" t="s">
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="O91" s="49">
+      <c r="O91" s="23">
         <f>Relatório!$O$139*$O$49*Relatório!O121</f>
         <v>0</v>
       </c>
-      <c r="P91" s="49"/>
-      <c r="Q91" s="33" t="s">
+      <c r="P91" s="23"/>
+      <c r="Q91" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="R91" s="33"/>
-      <c r="S91" s="33"/>
-    </row>
-    <row r="92" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+    </row>
+    <row r="92" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33" t="s">
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="19" t="s">
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="O92" s="49">
+      <c r="O92" s="23">
         <f>Relatório!$O$142*$O$50*Relatório!O121</f>
         <v>0</v>
       </c>
-      <c r="P92" s="49"/>
-      <c r="Q92" s="33" t="s">
+      <c r="P92" s="23"/>
+      <c r="Q92" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="R92" s="33"/>
-      <c r="S92" s="33"/>
-    </row>
-    <row r="93" spans="1:19" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="34" t="s">
+      <c r="R92" s="22"/>
+      <c r="S92" s="22"/>
+    </row>
+    <row r="93" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="19" t="s">
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="O93" s="49">
+      <c r="O93" s="23">
         <f>IF($R$21="Sim",O91+O92,0)</f>
         <v>0</v>
       </c>
-      <c r="P93" s="49"/>
-      <c r="Q93" s="33" t="s">
+      <c r="P93" s="23"/>
+      <c r="Q93" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="R93" s="33"/>
-      <c r="S93" s="33"/>
-    </row>
-    <row r="94" spans="1:19" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="R93" s="22"/>
+      <c r="S93" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="A93:M93"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:M91"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:M92"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:M89"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="A90:M90"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="A87:M87"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:M88"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:M85"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:M86"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="A84:M84"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="A81:M81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:M82"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="A79:M79"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="A80:M80"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="A40:F42"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A37:S37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="A45:F46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="A47:F48"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="A49:F50"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="A51:F52"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="A57:S57"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="A55:M55"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="A62:M62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="A61:M61"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:M63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="A65:M65"/>
+    <mergeCell ref="G69:M69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:M70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:M67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="A68:M68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="A74:M74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="A77:M77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:M43"/>
     <mergeCell ref="A78:M78"/>
     <mergeCell ref="O78:P78"/>
     <mergeCell ref="Q78:S78"/>
@@ -12503,196 +12452,59 @@
     <mergeCell ref="N22:S22"/>
     <mergeCell ref="A20:S20"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A77:M77"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A43:F44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="A74:M74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="G69:M69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:M70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:M67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="A68:M68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:M63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="A65:M65"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="A62:M62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="A61:M61"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="A57:S57"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="A55:M55"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="A49:F50"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="A51:F52"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="A45:F46"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="A47:F48"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="A40:F42"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A37:S37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A81:M81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="A79:M79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="A80:M80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:M85"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:M86"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="A84:M84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:M89"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="A87:M87"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:M88"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="A93:M93"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:M91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:M92"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="Q92:S92"/>
   </mergeCells>
   <conditionalFormatting sqref="G22:H22">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
@@ -12824,103 +12636,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="42"/>
       <c r="D1" s="6" t="s">
         <v>255</v>
       </c>
       <c r="E1" s="7"/>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="J1" s="53" t="s">
+      <c r="H1" s="41"/>
+      <c r="J1" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="M1" s="52" t="s">
+      <c r="K1" s="42"/>
+      <c r="M1" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="P1" s="52" t="s">
+      <c r="N1" s="33"/>
+      <c r="P1" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="Q1" s="52"/>
-      <c r="S1" s="52" t="s">
+      <c r="Q1" s="33"/>
+      <c r="S1" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="T1" s="52"/>
-      <c r="V1" s="52" t="s">
+      <c r="T1" s="33"/>
+      <c r="V1" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Z1" s="52" t="s">
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Z1" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AC1" s="52" t="s">
+      <c r="AA1" s="33"/>
+      <c r="AC1" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AF1" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AI1" s="56" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AI1" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="58"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="36"/>
       <c r="AP1" s="11"/>
-      <c r="AR1" s="56" t="s">
+      <c r="AR1" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="58"/>
-      <c r="AY1" s="56" t="s">
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="36"/>
+      <c r="AY1" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="58"/>
-      <c r="BC1" s="56" t="s">
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="36"/>
+      <c r="BC1" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="BD1" s="58"/>
-      <c r="BF1" s="52" t="s">
+      <c r="BD1" s="36"/>
+      <c r="BF1" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="BG1" s="52"/>
-      <c r="BI1" s="52" t="s">
+      <c r="BG1" s="33"/>
+      <c r="BI1" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="BJ1" s="52"/>
-      <c r="BL1" s="52" t="s">
+      <c r="BJ1" s="33"/>
+      <c r="BL1" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="BM1" s="52"/>
-      <c r="BO1" s="52" t="s">
+      <c r="BM1" s="33"/>
+      <c r="BO1" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="BP1" s="52"/>
-      <c r="BR1" s="52" t="s">
+      <c r="BP1" s="33"/>
+      <c r="BR1" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="BS1" s="52"/>
-      <c r="BU1" s="52" t="s">
+      <c r="BS1" s="33"/>
+      <c r="BU1" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="BV1" s="52"/>
-      <c r="BW1" s="52"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
     </row>
     <row r="2" spans="1:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -12992,30 +12804,30 @@
       <c r="AG2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AI2" s="53" t="s">
+      <c r="AI2" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="AJ2" s="53" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
       <c r="AO2" s="7" t="s">
         <v>388</v>
       </c>
       <c r="AP2" s="12"/>
-      <c r="AR2" s="59" t="s">
+      <c r="AR2" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="AS2" s="54" t="s">
+      <c r="AS2" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="55"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="41"/>
       <c r="AY2" s="7" t="s">
         <v>94</v>
       </c>
@@ -13141,7 +12953,7 @@
       <c r="AG3" s="7">
         <v>1</v>
       </c>
-      <c r="AI3" s="53"/>
+      <c r="AI3" s="42"/>
       <c r="AJ3" s="7">
         <v>1</v>
       </c>
@@ -13159,7 +12971,7 @@
       </c>
       <c r="AO3" s="7"/>
       <c r="AP3" s="12"/>
-      <c r="AR3" s="60"/>
+      <c r="AR3" s="38"/>
       <c r="AS3" s="7">
         <v>1</v>
       </c>
@@ -13175,7 +12987,7 @@
       <c r="AW3" s="7">
         <v>6</v>
       </c>
-      <c r="AY3" s="53" t="s">
+      <c r="AY3" s="42" t="s">
         <v>338</v>
       </c>
       <c r="AZ3" s="6" t="s">
@@ -13342,7 +13154,7 @@
       <c r="AW4" s="7">
         <v>0.1</v>
       </c>
-      <c r="AY4" s="53"/>
+      <c r="AY4" s="42"/>
       <c r="AZ4" s="6" t="s">
         <v>340</v>
       </c>
@@ -13495,7 +13307,7 @@
       <c r="AW5" s="7">
         <v>0.04</v>
       </c>
-      <c r="AY5" s="53"/>
+      <c r="AY5" s="42"/>
       <c r="AZ5" s="6" t="s">
         <v>341</v>
       </c>
@@ -13624,7 +13436,7 @@
       <c r="AP6" s="12">
         <v>4</v>
       </c>
-      <c r="AY6" s="53"/>
+      <c r="AY6" s="42"/>
       <c r="AZ6" s="9" t="s">
         <v>342</v>
       </c>
@@ -13719,7 +13531,7 @@
       <c r="AP7" s="12">
         <v>5</v>
       </c>
-      <c r="AY7" s="53"/>
+      <c r="AY7" s="42"/>
       <c r="AZ7" s="9" t="s">
         <v>343</v>
       </c>
@@ -13770,7 +13582,7 @@
       <c r="X8" s="7">
         <v>0</v>
       </c>
-      <c r="AY8" s="53" t="s">
+      <c r="AY8" s="42" t="s">
         <v>344</v>
       </c>
       <c r="AZ8" s="9" t="s">
@@ -13805,7 +13617,7 @@
       <c r="X9" s="7">
         <v>0</v>
       </c>
-      <c r="AY9" s="53"/>
+      <c r="AY9" s="42"/>
       <c r="AZ9" s="6" t="s">
         <v>345</v>
       </c>
@@ -13838,7 +13650,7 @@
       <c r="X10" s="7">
         <v>0</v>
       </c>
-      <c r="AY10" s="53"/>
+      <c r="AY10" s="42"/>
       <c r="AZ10" s="6" t="s">
         <v>346</v>
       </c>
@@ -13895,6 +13707,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AI1:AO1"/>
     <mergeCell ref="BU1:BW1"/>
     <mergeCell ref="BR1:BS1"/>
     <mergeCell ref="AR1:AW1"/>
@@ -13906,21 +13733,6 @@
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="BL1:BM1"/>
     <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/spda.xlsx
+++ b/spda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jéfferson\Documents\GIT\Planilha-SPDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jéfferson\Documents\GIT\spda\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1911,25 +1911,13 @@
     <xf numFmtId="11" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1938,7 +1926,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1956,16 +1965,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3288,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:M21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O122" sqref="O122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3299,73 +3299,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3641,26 +3641,26 @@
       <c r="S17" s="16"/>
     </row>
     <row r="19" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
       <c r="S19" s="19"/>
     </row>
     <row r="20" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3695,13 +3695,13 @@
       <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
         <v>123</v>
       </c>
       <c r="F21" s="22"/>
@@ -3727,12 +3727,12 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="22" t="s">
         <v>16</v>
       </c>
@@ -3751,18 +3751,18 @@
         <v>60</v>
       </c>
       <c r="P22" s="22"/>
-      <c r="Q22" s="29">
+      <c r="Q22" s="30">
         <f>O22*O23+2*(3*O24)*(O22+O23)+PI()*((3*O24)^2)</f>
         <v>8937.8760197630927</v>
       </c>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
     </row>
     <row r="23" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -3779,15 +3779,15 @@
         <v>60</v>
       </c>
       <c r="P23" s="22"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
     </row>
     <row r="24" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -3804,15 +3804,15 @@
         <v>6</v>
       </c>
       <c r="P24" s="22"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
     </row>
     <row r="25" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="22" t="s">
         <v>387</v>
       </c>
@@ -3831,17 +3831,17 @@
         <v>62</v>
       </c>
       <c r="P25" s="22"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
     </row>
     <row r="26" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="22" t="s">
         <v>253</v>
       </c>
@@ -3932,23 +3932,23 @@
       <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
       <c r="N29" s="19" t="s">
         <v>25</v>
       </c>
@@ -3963,19 +3963,19 @@
       <c r="S29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="19" t="s">
         <v>26</v>
       </c>
@@ -3988,10 +3988,10 @@
       <c r="S30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="22" t="s">
         <v>31</v>
       </c>
@@ -4018,10 +4018,10 @@
       <c r="S31" s="22"/>
     </row>
     <row r="32" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="22" t="s">
         <v>403</v>
       </c>
@@ -4048,27 +4048,27 @@
       <c r="S32" s="22"/>
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
     </row>
     <row r="35" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
@@ -4267,25 +4267,25 @@
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
       <c r="N41" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="28" t="str">
+      <c r="O41" s="25" t="str">
         <f>VLOOKUP(E41,Dados!AI4:AO7,7,0)</f>
         <v>-</v>
       </c>
-      <c r="P41" s="28"/>
+      <c r="P41" s="25"/>
       <c r="Q41" s="22" t="s">
         <v>60</v>
       </c>
@@ -4293,23 +4293,23 @@
       <c r="S41" s="22"/>
     </row>
     <row r="42" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
       <c r="N42" s="19" t="s">
         <v>433</v>
       </c>
@@ -4325,19 +4325,19 @@
       <c r="S42" s="22"/>
     </row>
     <row r="43" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
       <c r="N43" s="19" t="s">
         <v>48</v>
       </c>
@@ -4433,23 +4433,23 @@
       <c r="S46" s="22"/>
     </row>
     <row r="47" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28" t="s">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
       <c r="N47" s="19" t="s">
         <v>52</v>
       </c>
@@ -4465,23 +4465,23 @@
       <c r="S47" s="22"/>
     </row>
     <row r="48" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="27">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="31">
         <v>6</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
       <c r="N48" s="19" t="s">
         <v>53</v>
       </c>
@@ -4497,27 +4497,27 @@
       <c r="S48" s="22"/>
     </row>
     <row r="49" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
       <c r="N49" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="O49" s="31">
+      <c r="O49" s="27">
         <f>1/O48</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="P49" s="31"/>
+      <c r="P49" s="27"/>
       <c r="Q49" s="22" t="s">
         <v>63</v>
       </c>
@@ -4525,19 +4525,19 @@
       <c r="S49" s="22"/>
     </row>
     <row r="50" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
       <c r="N50" s="19" t="s">
         <v>55</v>
       </c>
@@ -4553,25 +4553,25 @@
       <c r="S50" s="22"/>
     </row>
     <row r="51" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
     </row>
     <row r="52" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
@@ -4739,25 +4739,25 @@
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
       <c r="N57" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O57" s="28" t="str">
+      <c r="O57" s="25" t="str">
         <f>VLOOKUP(E57,Dados!AI4:AO7,7,0)</f>
         <v>-</v>
       </c>
-      <c r="P57" s="28"/>
+      <c r="P57" s="25"/>
       <c r="Q57" s="22" t="s">
         <v>60</v>
       </c>
@@ -4765,23 +4765,23 @@
       <c r="S57" s="22"/>
     </row>
     <row r="58" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="25" t="s">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
       <c r="N58" s="19" t="s">
         <v>486</v>
       </c>
@@ -4797,19 +4797,19 @@
       <c r="S58" s="22"/>
     </row>
     <row r="59" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
       <c r="N59" s="19" t="s">
         <v>48</v>
       </c>
@@ -4905,23 +4905,23 @@
       <c r="S62" s="22"/>
     </row>
     <row r="63" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28" t="s">
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
       <c r="N63" s="19" t="s">
         <v>52</v>
       </c>
@@ -4937,23 +4937,23 @@
       <c r="S63" s="22"/>
     </row>
     <row r="64" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="27">
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="31">
         <v>2.5</v>
       </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
       <c r="N64" s="19" t="s">
         <v>53</v>
       </c>
@@ -4969,27 +4969,27 @@
       <c r="S64" s="22"/>
     </row>
     <row r="65" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
       <c r="N65" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="O65" s="31">
+      <c r="O65" s="27">
         <f>1/O64</f>
         <v>0.4</v>
       </c>
-      <c r="P65" s="31"/>
+      <c r="P65" s="27"/>
       <c r="Q65" s="22" t="s">
         <v>63</v>
       </c>
@@ -4997,19 +4997,19 @@
       <c r="S65" s="22"/>
     </row>
     <row r="66" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
       <c r="N66" s="19" t="s">
         <v>55</v>
       </c>
@@ -5046,27 +5046,27 @@
       <c r="S67" s="16"/>
     </row>
     <row r="68" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="26"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
     </row>
     <row r="69" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
@@ -5140,15 +5140,15 @@
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
-      <c r="G71" s="25" t="s">
+      <c r="G71" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
       <c r="N71" s="19" t="s">
         <v>79</v>
       </c>
@@ -5236,15 +5236,15 @@
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
-      <c r="G74" s="25" t="s">
+      <c r="G74" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
       <c r="N74" s="19" t="s">
         <v>82</v>
       </c>
@@ -5270,15 +5270,15 @@
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
       <c r="N75" s="19" t="s">
         <v>84</v>
       </c>
@@ -5336,15 +5336,15 @@
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
-      <c r="G77" s="25" t="s">
+      <c r="G77" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
       <c r="N77" s="19" t="s">
         <v>434</v>
       </c>
@@ -5400,15 +5400,15 @@
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
-      <c r="G79" s="25" t="s">
+      <c r="G79" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
       <c r="N79" s="19" t="s">
         <v>85</v>
       </c>
@@ -5424,27 +5424,27 @@
       <c r="S79" s="22"/>
     </row>
     <row r="81" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="26"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="26"/>
-      <c r="S81" s="26"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
@@ -5545,15 +5545,15 @@
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
-      <c r="G85" s="25" t="s">
+      <c r="G85" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
       <c r="N85" s="19" t="s">
         <v>99</v>
       </c>
@@ -5677,21 +5677,21 @@
       <c r="S89" s="22"/>
     </row>
     <row r="90" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="25"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
       <c r="N90" s="19" t="s">
         <v>113</v>
       </c>
@@ -5810,27 +5810,27 @@
       <c r="M94" s="17"/>
     </row>
     <row r="95" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="26"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="26"/>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="26"/>
-      <c r="S95" s="26"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24"/>
     </row>
     <row r="96" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
@@ -5986,27 +5986,27 @@
       <c r="S100" s="22"/>
     </row>
     <row r="102" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="26"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
-      <c r="Q102" s="26"/>
-      <c r="R102" s="26"/>
-      <c r="S102" s="26"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="24"/>
     </row>
     <row r="103" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
@@ -6180,27 +6180,27 @@
       <c r="S108" s="16"/>
     </row>
     <row r="109" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="26"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
+      <c r="R109" s="24"/>
+      <c r="S109" s="24"/>
     </row>
     <row r="110" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
@@ -6488,7 +6488,7 @@
         <v>108</v>
       </c>
       <c r="O119" s="22">
-        <f>IFERROR(0,O70*O111*(O114/O118))</f>
+        <f>IFERROR(O70*O111*(O114/O118),0)</f>
         <v>0</v>
       </c>
       <c r="P119" s="22"/>
@@ -6518,7 +6518,7 @@
         <v>109</v>
       </c>
       <c r="O120" s="22">
-        <f>IFERROR(0,O74*O73*O79*O112*((O114+O115+O116+O117)/O118))</f>
+        <f>IFERROR(O74*O73*O79*O112*((O114+O115+O116+O117)/O118),0)</f>
         <v>0</v>
       </c>
       <c r="P120" s="22"/>
@@ -6548,7 +6548,7 @@
         <v>473</v>
       </c>
       <c r="O121" s="22">
-        <f>IFERROR(0,O113*(O117/O118))</f>
+        <f>IFERROR(O113*(O117/O118),0)</f>
         <v>0</v>
       </c>
       <c r="P121" s="22"/>
@@ -6559,27 +6559,27 @@
       <c r="S121" s="22"/>
     </row>
     <row r="123" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="26" t="s">
+      <c r="A123" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="26"/>
-      <c r="K123" s="26"/>
-      <c r="L123" s="26"/>
-      <c r="M123" s="26"/>
-      <c r="N123" s="26"/>
-      <c r="O123" s="26"/>
-      <c r="P123" s="26"/>
-      <c r="Q123" s="26"/>
-      <c r="R123" s="26"/>
-      <c r="S123" s="26"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24"/>
+      <c r="O123" s="24"/>
+      <c r="P123" s="24"/>
+      <c r="Q123" s="24"/>
+      <c r="R123" s="24"/>
+      <c r="S123" s="24"/>
     </row>
     <row r="124" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
@@ -6880,27 +6880,27 @@
       <c r="S133" s="16"/>
     </row>
     <row r="134" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="26" t="s">
+      <c r="A134" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="26"/>
-      <c r="K134" s="26"/>
-      <c r="L134" s="26"/>
-      <c r="M134" s="26"/>
-      <c r="N134" s="26"/>
-      <c r="O134" s="26"/>
-      <c r="P134" s="26"/>
-      <c r="Q134" s="26"/>
-      <c r="R134" s="26"/>
-      <c r="S134" s="26"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
+      <c r="M134" s="24"/>
+      <c r="N134" s="24"/>
+      <c r="O134" s="24"/>
+      <c r="P134" s="24"/>
+      <c r="Q134" s="24"/>
+      <c r="R134" s="24"/>
+      <c r="S134" s="24"/>
     </row>
     <row r="135" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
@@ -7180,27 +7180,27 @@
       <c r="S143" s="22"/>
     </row>
     <row r="145" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="26" t="s">
+      <c r="A145" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="26"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="26"/>
-      <c r="K145" s="26"/>
-      <c r="L145" s="26"/>
-      <c r="M145" s="26"/>
-      <c r="N145" s="26"/>
-      <c r="O145" s="26"/>
-      <c r="P145" s="26"/>
-      <c r="Q145" s="26"/>
-      <c r="R145" s="26"/>
-      <c r="S145" s="26"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
+      <c r="N145" s="24"/>
+      <c r="O145" s="24"/>
+      <c r="P145" s="24"/>
+      <c r="Q145" s="24"/>
+      <c r="R145" s="24"/>
+      <c r="S145" s="24"/>
     </row>
     <row r="146" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
@@ -7266,14 +7266,14 @@
       <c r="S147" s="22"/>
     </row>
     <row r="148" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="28" t="s">
+      <c r="A148" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="25"/>
       <c r="G148" s="22" t="s">
         <v>71</v>
       </c>
@@ -7300,12 +7300,12 @@
       <c r="S148" s="22"/>
     </row>
     <row r="149" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="28"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
       <c r="G149" s="22" t="s">
         <v>72</v>
       </c>
@@ -7332,12 +7332,12 @@
       <c r="S149" s="22"/>
     </row>
     <row r="150" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
       <c r="G150" s="22" t="s">
         <v>441</v>
       </c>
@@ -7364,14 +7364,14 @@
       <c r="S150" s="22"/>
     </row>
     <row r="151" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="28" t="s">
+      <c r="A151" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B151" s="28"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
       <c r="G151" s="22" t="s">
         <v>71</v>
       </c>
@@ -7398,12 +7398,12 @@
       <c r="S151" s="22"/>
     </row>
     <row r="152" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="28"/>
-      <c r="B152" s="28"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="28"/>
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="25"/>
       <c r="G152" s="22" t="s">
         <v>72</v>
       </c>
@@ -7430,14 +7430,14 @@
       <c r="S152" s="22"/>
     </row>
     <row r="153" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="28"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
       <c r="G153" s="22" t="s">
         <v>71</v>
       </c>
@@ -7464,12 +7464,12 @@
       <c r="S153" s="22"/>
     </row>
     <row r="154" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="28"/>
-      <c r="B154" s="28"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="28"/>
+      <c r="A154" s="25"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
       <c r="G154" s="22" t="s">
         <v>72</v>
       </c>
@@ -7496,14 +7496,14 @@
       <c r="S154" s="22"/>
     </row>
     <row r="155" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="28" t="s">
+      <c r="A155" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="28"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
       <c r="G155" s="22" t="s">
         <v>71</v>
       </c>
@@ -7530,12 +7530,12 @@
       <c r="S155" s="22"/>
     </row>
     <row r="156" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="28"/>
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="28"/>
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
       <c r="G156" s="22" t="s">
         <v>72</v>
       </c>
@@ -7562,14 +7562,14 @@
       <c r="S156" s="22"/>
     </row>
     <row r="157" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="28" t="s">
+      <c r="A157" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B157" s="28"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="28"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
       <c r="G157" s="22" t="s">
         <v>71</v>
       </c>
@@ -7596,12 +7596,12 @@
       <c r="S157" s="22"/>
     </row>
     <row r="158" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="28"/>
-      <c r="B158" s="28"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="28"/>
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
       <c r="G158" s="22" t="s">
         <v>72</v>
       </c>
@@ -7628,14 +7628,14 @@
       <c r="S158" s="22"/>
     </row>
     <row r="159" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="28" t="s">
+      <c r="A159" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="B159" s="28"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
-      <c r="E159" s="28"/>
-      <c r="F159" s="28"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
       <c r="G159" s="22" t="s">
         <v>71</v>
       </c>
@@ -7662,12 +7662,12 @@
       <c r="S159" s="22"/>
     </row>
     <row r="160" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="28"/>
-      <c r="B160" s="28"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="28"/>
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25"/>
       <c r="G160" s="22" t="s">
         <v>72</v>
       </c>
@@ -7809,27 +7809,27 @@
       <c r="S164" s="18"/>
     </row>
     <row r="165" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="26" t="s">
+      <c r="A165" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
-      <c r="F165" s="26"/>
-      <c r="G165" s="26"/>
-      <c r="H165" s="26"/>
-      <c r="I165" s="26"/>
-      <c r="J165" s="26"/>
-      <c r="K165" s="26"/>
-      <c r="L165" s="26"/>
-      <c r="M165" s="26"/>
-      <c r="N165" s="26"/>
-      <c r="O165" s="26"/>
-      <c r="P165" s="26"/>
-      <c r="Q165" s="26"/>
-      <c r="R165" s="26"/>
-      <c r="S165" s="26"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
+      <c r="M165" s="24"/>
+      <c r="N165" s="24"/>
+      <c r="O165" s="24"/>
+      <c r="P165" s="24"/>
+      <c r="Q165" s="24"/>
+      <c r="R165" s="24"/>
+      <c r="S165" s="24"/>
     </row>
     <row r="166" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="22" t="s">
@@ -8378,27 +8378,27 @@
       <c r="S183"/>
     </row>
     <row r="184" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="26" t="s">
+      <c r="A184" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
-      <c r="F184" s="26"/>
-      <c r="G184" s="26"/>
-      <c r="H184" s="26"/>
-      <c r="I184" s="26"/>
-      <c r="J184" s="26"/>
-      <c r="K184" s="26"/>
-      <c r="L184" s="26"/>
-      <c r="M184" s="26"/>
-      <c r="N184" s="26"/>
-      <c r="O184" s="26"/>
-      <c r="P184" s="26"/>
-      <c r="Q184" s="26"/>
-      <c r="R184" s="26"/>
-      <c r="S184" s="26"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="24"/>
+      <c r="F184" s="24"/>
+      <c r="G184" s="24"/>
+      <c r="H184" s="24"/>
+      <c r="I184" s="24"/>
+      <c r="J184" s="24"/>
+      <c r="K184" s="24"/>
+      <c r="L184" s="24"/>
+      <c r="M184" s="24"/>
+      <c r="N184" s="24"/>
+      <c r="O184" s="24"/>
+      <c r="P184" s="24"/>
+      <c r="Q184" s="24"/>
+      <c r="R184" s="24"/>
+      <c r="S184" s="24"/>
     </row>
     <row r="185" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="22" t="s">
@@ -8947,27 +8947,27 @@
       <c r="S202" s="16"/>
     </row>
     <row r="203" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="26" t="s">
+      <c r="A203" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
-      <c r="F203" s="26"/>
-      <c r="G203" s="26"/>
-      <c r="H203" s="26"/>
-      <c r="I203" s="26"/>
-      <c r="J203" s="26"/>
-      <c r="K203" s="26"/>
-      <c r="L203" s="26"/>
-      <c r="M203" s="26"/>
-      <c r="N203" s="26"/>
-      <c r="O203" s="26"/>
-      <c r="P203" s="26"/>
-      <c r="Q203" s="26"/>
-      <c r="R203" s="26"/>
-      <c r="S203" s="26"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="24"/>
+      <c r="I203" s="24"/>
+      <c r="J203" s="24"/>
+      <c r="K203" s="24"/>
+      <c r="L203" s="24"/>
+      <c r="M203" s="24"/>
+      <c r="N203" s="24"/>
+      <c r="O203" s="24"/>
+      <c r="P203" s="24"/>
+      <c r="Q203" s="24"/>
+      <c r="R203" s="24"/>
+      <c r="S203" s="24"/>
     </row>
     <row r="204" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="22" t="s">
@@ -8993,12 +8993,12 @@
         <v>471</v>
       </c>
       <c r="M204" s="22"/>
-      <c r="N204" s="25" t="s">
+      <c r="N204" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="O204" s="25"/>
-      <c r="P204" s="25"/>
-      <c r="Q204" s="25"/>
+      <c r="O204" s="26"/>
+      <c r="P204" s="26"/>
+      <c r="Q204" s="26"/>
       <c r="R204" s="22" t="s">
         <v>511</v>
       </c>
@@ -9025,10 +9025,10 @@
       </c>
       <c r="J205" s="22"/>
       <c r="K205" s="22"/>
-      <c r="L205" s="24">
+      <c r="L205" s="32">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M205" s="24"/>
+      <c r="M205" s="32"/>
       <c r="N205" s="22" t="s">
         <v>65</v>
       </c>
@@ -9060,16 +9060,16 @@
       </c>
       <c r="J206" s="22"/>
       <c r="K206" s="22"/>
-      <c r="L206" s="24">
+      <c r="L206" s="32">
         <v>1E-3</v>
       </c>
-      <c r="M206" s="24"/>
-      <c r="N206" s="25" t="s">
+      <c r="M206" s="32"/>
+      <c r="N206" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="O206" s="25"/>
-      <c r="P206" s="25"/>
-      <c r="Q206" s="25"/>
+      <c r="O206" s="26"/>
+      <c r="P206" s="26"/>
+      <c r="Q206" s="26"/>
       <c r="R206" s="22" t="s">
         <v>460</v>
       </c>
@@ -9095,10 +9095,10 @@
       </c>
       <c r="J207" s="22"/>
       <c r="K207" s="22"/>
-      <c r="L207" s="24">
+      <c r="L207" s="32">
         <v>1E-4</v>
       </c>
-      <c r="M207" s="24"/>
+      <c r="M207" s="32"/>
       <c r="N207" s="22" t="s">
         <v>469</v>
       </c>
@@ -9131,10 +9131,10 @@
       </c>
       <c r="J208" s="22"/>
       <c r="K208" s="22"/>
-      <c r="L208" s="24">
+      <c r="L208" s="32">
         <v>1E-3</v>
       </c>
-      <c r="M208" s="24"/>
+      <c r="M208" s="32"/>
       <c r="N208" s="22" t="s">
         <v>470</v>
       </c>
@@ -9167,10 +9167,10 @@
       </c>
       <c r="J209" s="22"/>
       <c r="K209" s="22"/>
-      <c r="L209" s="24">
+      <c r="L209" s="32">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M209" s="24"/>
+      <c r="M209" s="32"/>
       <c r="N209" s="18"/>
       <c r="O209" s="18"/>
       <c r="P209" s="18"/>
@@ -9180,82 +9180,503 @@
     </row>
   </sheetData>
   <mergeCells count="597">
-    <mergeCell ref="A200:F200"/>
-    <mergeCell ref="G200:M200"/>
-    <mergeCell ref="O200:P200"/>
-    <mergeCell ref="Q200:S200"/>
-    <mergeCell ref="A201:M201"/>
-    <mergeCell ref="O201:P201"/>
-    <mergeCell ref="Q201:S201"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="G197:M197"/>
-    <mergeCell ref="O197:P197"/>
-    <mergeCell ref="Q197:S197"/>
-    <mergeCell ref="A198:M198"/>
-    <mergeCell ref="O198:P198"/>
-    <mergeCell ref="Q198:S198"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="G199:M199"/>
-    <mergeCell ref="O199:P199"/>
-    <mergeCell ref="Q199:S199"/>
-    <mergeCell ref="A194:F194"/>
-    <mergeCell ref="G194:M194"/>
-    <mergeCell ref="O194:P194"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="A195:M195"/>
-    <mergeCell ref="O195:P195"/>
-    <mergeCell ref="Q195:S195"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="G196:M196"/>
-    <mergeCell ref="O196:P196"/>
-    <mergeCell ref="Q196:S196"/>
-    <mergeCell ref="A191:F191"/>
-    <mergeCell ref="G191:M191"/>
-    <mergeCell ref="O191:P191"/>
-    <mergeCell ref="Q191:S191"/>
-    <mergeCell ref="A192:M192"/>
-    <mergeCell ref="O192:P192"/>
-    <mergeCell ref="Q192:S192"/>
-    <mergeCell ref="A193:F193"/>
-    <mergeCell ref="G193:M193"/>
-    <mergeCell ref="O193:P193"/>
-    <mergeCell ref="Q193:S193"/>
-    <mergeCell ref="A188:M188"/>
-    <mergeCell ref="O188:P188"/>
-    <mergeCell ref="Q188:S188"/>
-    <mergeCell ref="A189:M189"/>
-    <mergeCell ref="O189:P189"/>
-    <mergeCell ref="Q189:S189"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="G190:M190"/>
-    <mergeCell ref="O190:P190"/>
-    <mergeCell ref="Q190:S190"/>
-    <mergeCell ref="A184:S184"/>
-    <mergeCell ref="A185:M185"/>
-    <mergeCell ref="O185:P185"/>
-    <mergeCell ref="Q185:S185"/>
-    <mergeCell ref="A186:M186"/>
-    <mergeCell ref="O186:P186"/>
-    <mergeCell ref="Q186:S186"/>
-    <mergeCell ref="A187:M187"/>
-    <mergeCell ref="O187:P187"/>
-    <mergeCell ref="Q187:S187"/>
-    <mergeCell ref="A203:S203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="I204:K204"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="I205:K205"/>
-    <mergeCell ref="I206:K206"/>
-    <mergeCell ref="I207:K207"/>
-    <mergeCell ref="I208:K208"/>
-    <mergeCell ref="R204:S204"/>
-    <mergeCell ref="R205:S205"/>
-    <mergeCell ref="R206:S206"/>
-    <mergeCell ref="R207:S207"/>
-    <mergeCell ref="R208:S208"/>
+    <mergeCell ref="A209:E209"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="L209:M209"/>
+    <mergeCell ref="I209:K209"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="E110:M110"/>
+    <mergeCell ref="N204:Q204"/>
+    <mergeCell ref="N205:Q205"/>
+    <mergeCell ref="N206:Q206"/>
+    <mergeCell ref="N207:Q207"/>
+    <mergeCell ref="N208:Q208"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A207:E207"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="L208:M208"/>
+    <mergeCell ref="O176:P176"/>
+    <mergeCell ref="O175:P175"/>
+    <mergeCell ref="O174:P174"/>
+    <mergeCell ref="Q86:S90"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="F96:M96"/>
+    <mergeCell ref="F97:M97"/>
+    <mergeCell ref="F98:M98"/>
+    <mergeCell ref="D103:M103"/>
+    <mergeCell ref="D104:M104"/>
+    <mergeCell ref="A109:S109"/>
+    <mergeCell ref="G172:M172"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="O171:P171"/>
+    <mergeCell ref="O169:P169"/>
+    <mergeCell ref="O170:P170"/>
+    <mergeCell ref="O168:P168"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="Q169:S169"/>
+    <mergeCell ref="Q170:S170"/>
+    <mergeCell ref="Q171:S171"/>
+    <mergeCell ref="Q172:S172"/>
+    <mergeCell ref="G171:M171"/>
+    <mergeCell ref="O114:P114"/>
+    <mergeCell ref="Q111:S111"/>
+    <mergeCell ref="A119:C121"/>
+    <mergeCell ref="A182:M182"/>
+    <mergeCell ref="E48:M50"/>
+    <mergeCell ref="D120:M120"/>
+    <mergeCell ref="D121:M121"/>
+    <mergeCell ref="Q178:S178"/>
+    <mergeCell ref="Q179:S179"/>
+    <mergeCell ref="Q180:S180"/>
+    <mergeCell ref="Q181:S181"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="O181:P181"/>
+    <mergeCell ref="O180:P180"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="Q163:S163"/>
+    <mergeCell ref="Q167:S167"/>
+    <mergeCell ref="Q168:S168"/>
+    <mergeCell ref="O173:P173"/>
+    <mergeCell ref="Q119:S119"/>
+    <mergeCell ref="Q120:S120"/>
+    <mergeCell ref="A117:M117"/>
+    <mergeCell ref="O117:P117"/>
+    <mergeCell ref="O110:P110"/>
+    <mergeCell ref="Q110:S110"/>
+    <mergeCell ref="D119:M119"/>
+    <mergeCell ref="O119:P119"/>
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="G77:M77"/>
+    <mergeCell ref="G71:M71"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E58:M59"/>
+    <mergeCell ref="E64:M66"/>
+    <mergeCell ref="G69:M69"/>
+    <mergeCell ref="G70:M70"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="A64:D66"/>
+    <mergeCell ref="A68:S68"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G74:M74"/>
+    <mergeCell ref="G75:M75"/>
+    <mergeCell ref="Q176:S176"/>
+    <mergeCell ref="Q177:S177"/>
+    <mergeCell ref="A180:F180"/>
+    <mergeCell ref="G174:M174"/>
+    <mergeCell ref="G175:M175"/>
+    <mergeCell ref="G177:M177"/>
+    <mergeCell ref="G178:M178"/>
+    <mergeCell ref="G180:M180"/>
+    <mergeCell ref="G181:M181"/>
+    <mergeCell ref="A176:M176"/>
+    <mergeCell ref="A179:M179"/>
+    <mergeCell ref="A174:F174"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A177:F177"/>
+    <mergeCell ref="A178:F178"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="O177:P177"/>
+    <mergeCell ref="Q174:S174"/>
+    <mergeCell ref="Q175:S175"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="O162:P162"/>
+    <mergeCell ref="O167:P167"/>
+    <mergeCell ref="O161:P161"/>
+    <mergeCell ref="A165:S165"/>
+    <mergeCell ref="O166:P166"/>
+    <mergeCell ref="Q166:S166"/>
+    <mergeCell ref="A166:M166"/>
+    <mergeCell ref="G161:M161"/>
+    <mergeCell ref="G162:M162"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="A162:F162"/>
+    <mergeCell ref="A170:M170"/>
+    <mergeCell ref="A169:M169"/>
+    <mergeCell ref="A168:M168"/>
+    <mergeCell ref="A167:M167"/>
+    <mergeCell ref="A163:M163"/>
+    <mergeCell ref="Q161:S161"/>
+    <mergeCell ref="Q162:S162"/>
+    <mergeCell ref="O155:P155"/>
+    <mergeCell ref="O156:P156"/>
+    <mergeCell ref="O157:P157"/>
+    <mergeCell ref="O158:P158"/>
+    <mergeCell ref="Q155:S155"/>
+    <mergeCell ref="Q156:S156"/>
+    <mergeCell ref="Q157:S157"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="I160:M160"/>
+    <mergeCell ref="A155:F156"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A157:F158"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I155:M155"/>
+    <mergeCell ref="I156:M156"/>
+    <mergeCell ref="I157:M157"/>
+    <mergeCell ref="I158:M158"/>
+    <mergeCell ref="Q151:S151"/>
+    <mergeCell ref="A151:F152"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="I151:M151"/>
+    <mergeCell ref="I152:M152"/>
+    <mergeCell ref="A153:F154"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="O152:P152"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="O154:P154"/>
+    <mergeCell ref="I153:M153"/>
+    <mergeCell ref="I154:M154"/>
+    <mergeCell ref="Q152:S152"/>
+    <mergeCell ref="Q153:S153"/>
+    <mergeCell ref="Q154:S154"/>
+    <mergeCell ref="A145:S145"/>
+    <mergeCell ref="Q146:S146"/>
+    <mergeCell ref="O146:P146"/>
+    <mergeCell ref="A146:H146"/>
+    <mergeCell ref="A147:H147"/>
+    <mergeCell ref="I146:M146"/>
+    <mergeCell ref="Q147:S147"/>
+    <mergeCell ref="Q148:S148"/>
+    <mergeCell ref="Q149:S149"/>
+    <mergeCell ref="A148:F150"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="Q150:S150"/>
+    <mergeCell ref="I147:M147"/>
+    <mergeCell ref="I148:M148"/>
+    <mergeCell ref="I149:M149"/>
+    <mergeCell ref="I150:M150"/>
+    <mergeCell ref="O147:P147"/>
+    <mergeCell ref="O148:P148"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="O150:P150"/>
+    <mergeCell ref="Q136:S136"/>
+    <mergeCell ref="Q137:S137"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="Q140:S140"/>
+    <mergeCell ref="Q141:S141"/>
+    <mergeCell ref="Q142:S142"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="D139:M139"/>
+    <mergeCell ref="D140:M140"/>
+    <mergeCell ref="D141:M141"/>
+    <mergeCell ref="D142:M142"/>
+    <mergeCell ref="D143:M143"/>
+    <mergeCell ref="A136:C137"/>
+    <mergeCell ref="A138:C140"/>
+    <mergeCell ref="A141:C143"/>
+    <mergeCell ref="D135:M135"/>
+    <mergeCell ref="D136:M136"/>
+    <mergeCell ref="D137:M137"/>
+    <mergeCell ref="D138:M138"/>
+    <mergeCell ref="O136:P136"/>
+    <mergeCell ref="O137:P137"/>
+    <mergeCell ref="O138:P138"/>
+    <mergeCell ref="O139:P139"/>
+    <mergeCell ref="O140:P140"/>
+    <mergeCell ref="O141:P141"/>
+    <mergeCell ref="O142:P142"/>
+    <mergeCell ref="O143:P143"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="Q128:S128"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="Q130:S130"/>
+    <mergeCell ref="Q131:S131"/>
+    <mergeCell ref="Q132:S132"/>
+    <mergeCell ref="D124:M124"/>
+    <mergeCell ref="A134:S134"/>
+    <mergeCell ref="Q135:S135"/>
+    <mergeCell ref="O135:P135"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C126"/>
+    <mergeCell ref="A127:C129"/>
+    <mergeCell ref="A130:C132"/>
+    <mergeCell ref="D125:M125"/>
+    <mergeCell ref="D126:M126"/>
+    <mergeCell ref="D129:M129"/>
+    <mergeCell ref="D128:M128"/>
+    <mergeCell ref="D127:M127"/>
+    <mergeCell ref="D130:M130"/>
+    <mergeCell ref="D131:M131"/>
+    <mergeCell ref="D132:M132"/>
+    <mergeCell ref="O125:P125"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="O127:P127"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="O129:P129"/>
+    <mergeCell ref="O130:P130"/>
+    <mergeCell ref="O131:P131"/>
+    <mergeCell ref="O132:P132"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="A22:D25"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q22:S25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E2:S2"/>
+    <mergeCell ref="E3:S3"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="E22:M24"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="E29:M30"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q29:S30"/>
+    <mergeCell ref="E35:M35"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="E36:M36"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="E31:M31"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="A29:D32"/>
+    <mergeCell ref="A34:S34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A44:D46"/>
+    <mergeCell ref="A48:D50"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E37:M37"/>
+    <mergeCell ref="E38:M38"/>
+    <mergeCell ref="E39:M39"/>
+    <mergeCell ref="E40:M40"/>
+    <mergeCell ref="E41:M41"/>
+    <mergeCell ref="E42:M43"/>
+    <mergeCell ref="E44:M46"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E47:M47"/>
+    <mergeCell ref="E52:M52"/>
+    <mergeCell ref="E53:M53"/>
+    <mergeCell ref="E54:M54"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q42:S43"/>
+    <mergeCell ref="Q44:S46"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="A51:S51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A60:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E55:M55"/>
+    <mergeCell ref="E56:M56"/>
+    <mergeCell ref="E57:M57"/>
+    <mergeCell ref="E63:M63"/>
+    <mergeCell ref="E60:M62"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q58:S59"/>
+    <mergeCell ref="Q60:S62"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="Q83:S85"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="G84:M84"/>
+    <mergeCell ref="G85:M85"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="A82:M82"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="A92:M92"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="A89:M89"/>
+    <mergeCell ref="A91:M91"/>
+    <mergeCell ref="A93:M93"/>
+    <mergeCell ref="A86:M86"/>
+    <mergeCell ref="A87:M87"/>
+    <mergeCell ref="A88:M88"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="A81:S81"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="A102:S102"/>
+    <mergeCell ref="Q103:S103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="Q97:S98"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="A99:M99"/>
+    <mergeCell ref="A100:M100"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="Q121:S121"/>
+    <mergeCell ref="A114:M114"/>
+    <mergeCell ref="A115:M115"/>
+    <mergeCell ref="O115:P115"/>
+    <mergeCell ref="Q112:S112"/>
+    <mergeCell ref="A116:M116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="A118:M118"/>
+    <mergeCell ref="O118:P118"/>
+    <mergeCell ref="Q114:S118"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E111:M111"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="E112:M112"/>
+    <mergeCell ref="E113:M113"/>
+    <mergeCell ref="O111:P111"/>
+    <mergeCell ref="O112:P112"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:M28"/>
     <mergeCell ref="O28:P28"/>
@@ -9280,503 +9701,82 @@
     <mergeCell ref="Q104:S104"/>
     <mergeCell ref="O104:P104"/>
     <mergeCell ref="O105:P105"/>
-    <mergeCell ref="O106:P106"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="O120:P120"/>
-    <mergeCell ref="O121:P121"/>
-    <mergeCell ref="Q121:S121"/>
-    <mergeCell ref="A114:M114"/>
-    <mergeCell ref="A115:M115"/>
-    <mergeCell ref="O115:P115"/>
-    <mergeCell ref="Q112:S112"/>
-    <mergeCell ref="A116:M116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="A118:M118"/>
-    <mergeCell ref="O118:P118"/>
-    <mergeCell ref="Q114:S118"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="E111:M111"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="E112:M112"/>
-    <mergeCell ref="E113:M113"/>
-    <mergeCell ref="O111:P111"/>
-    <mergeCell ref="O112:P112"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="A102:S102"/>
-    <mergeCell ref="Q103:S103"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="Q97:S98"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="A99:M99"/>
-    <mergeCell ref="A100:M100"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="A95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="A90:M90"/>
-    <mergeCell ref="A92:M92"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="A89:M89"/>
-    <mergeCell ref="A91:M91"/>
-    <mergeCell ref="A93:M93"/>
-    <mergeCell ref="A86:M86"/>
-    <mergeCell ref="A87:M87"/>
-    <mergeCell ref="A88:M88"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="A81:S81"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="Q83:S85"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="G84:M84"/>
-    <mergeCell ref="G85:M85"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="A82:M82"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q58:S59"/>
-    <mergeCell ref="Q60:S62"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="A51:S51"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A60:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E55:M55"/>
-    <mergeCell ref="E56:M56"/>
-    <mergeCell ref="E57:M57"/>
-    <mergeCell ref="E63:M63"/>
-    <mergeCell ref="E60:M62"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q42:S43"/>
-    <mergeCell ref="Q44:S46"/>
-    <mergeCell ref="A44:D46"/>
-    <mergeCell ref="A48:D50"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E37:M37"/>
-    <mergeCell ref="E38:M38"/>
-    <mergeCell ref="E39:M39"/>
-    <mergeCell ref="E40:M40"/>
-    <mergeCell ref="E41:M41"/>
-    <mergeCell ref="E42:M43"/>
-    <mergeCell ref="E44:M46"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E47:M47"/>
-    <mergeCell ref="E52:M52"/>
-    <mergeCell ref="E53:M53"/>
-    <mergeCell ref="E54:M54"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="E29:M30"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q29:S30"/>
-    <mergeCell ref="E35:M35"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="E36:M36"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="E31:M31"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="A29:D32"/>
-    <mergeCell ref="A34:S34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E2:S2"/>
-    <mergeCell ref="E3:S3"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="E22:M24"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="A22:D25"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q22:S25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="D132:M132"/>
-    <mergeCell ref="O125:P125"/>
-    <mergeCell ref="O126:P126"/>
-    <mergeCell ref="O127:P127"/>
-    <mergeCell ref="O128:P128"/>
-    <mergeCell ref="O129:P129"/>
-    <mergeCell ref="O130:P130"/>
-    <mergeCell ref="O131:P131"/>
-    <mergeCell ref="O132:P132"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="Q128:S128"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="Q130:S130"/>
-    <mergeCell ref="Q131:S131"/>
-    <mergeCell ref="Q132:S132"/>
-    <mergeCell ref="D124:M124"/>
-    <mergeCell ref="A134:S134"/>
-    <mergeCell ref="Q135:S135"/>
-    <mergeCell ref="O135:P135"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="O124:P124"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C126"/>
-    <mergeCell ref="A127:C129"/>
-    <mergeCell ref="A130:C132"/>
-    <mergeCell ref="D125:M125"/>
-    <mergeCell ref="D126:M126"/>
-    <mergeCell ref="D129:M129"/>
-    <mergeCell ref="D128:M128"/>
-    <mergeCell ref="D127:M127"/>
-    <mergeCell ref="D130:M130"/>
-    <mergeCell ref="D131:M131"/>
-    <mergeCell ref="A136:C137"/>
-    <mergeCell ref="A138:C140"/>
-    <mergeCell ref="A141:C143"/>
-    <mergeCell ref="D135:M135"/>
-    <mergeCell ref="D136:M136"/>
-    <mergeCell ref="D137:M137"/>
-    <mergeCell ref="D138:M138"/>
-    <mergeCell ref="O136:P136"/>
-    <mergeCell ref="O137:P137"/>
-    <mergeCell ref="O138:P138"/>
-    <mergeCell ref="O139:P139"/>
-    <mergeCell ref="O140:P140"/>
-    <mergeCell ref="O141:P141"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="O143:P143"/>
-    <mergeCell ref="Q136:S136"/>
-    <mergeCell ref="Q137:S137"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="Q140:S140"/>
-    <mergeCell ref="Q141:S141"/>
-    <mergeCell ref="Q142:S142"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="D139:M139"/>
-    <mergeCell ref="D140:M140"/>
-    <mergeCell ref="D141:M141"/>
-    <mergeCell ref="D142:M142"/>
-    <mergeCell ref="D143:M143"/>
-    <mergeCell ref="A145:S145"/>
-    <mergeCell ref="Q146:S146"/>
-    <mergeCell ref="O146:P146"/>
-    <mergeCell ref="A146:H146"/>
-    <mergeCell ref="A147:H147"/>
-    <mergeCell ref="I146:M146"/>
-    <mergeCell ref="Q147:S147"/>
-    <mergeCell ref="Q148:S148"/>
-    <mergeCell ref="Q149:S149"/>
-    <mergeCell ref="A148:F150"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="Q150:S150"/>
-    <mergeCell ref="I147:M147"/>
-    <mergeCell ref="I148:M148"/>
-    <mergeCell ref="I149:M149"/>
-    <mergeCell ref="I150:M150"/>
-    <mergeCell ref="O147:P147"/>
-    <mergeCell ref="O148:P148"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="O150:P150"/>
-    <mergeCell ref="I157:M157"/>
-    <mergeCell ref="I158:M158"/>
-    <mergeCell ref="Q151:S151"/>
-    <mergeCell ref="A151:F152"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="I151:M151"/>
-    <mergeCell ref="I152:M152"/>
-    <mergeCell ref="A153:F154"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="O152:P152"/>
-    <mergeCell ref="O153:P153"/>
-    <mergeCell ref="O154:P154"/>
-    <mergeCell ref="I153:M153"/>
-    <mergeCell ref="I154:M154"/>
-    <mergeCell ref="Q152:S152"/>
-    <mergeCell ref="Q153:S153"/>
-    <mergeCell ref="Q154:S154"/>
-    <mergeCell ref="A170:M170"/>
-    <mergeCell ref="A169:M169"/>
-    <mergeCell ref="A168:M168"/>
-    <mergeCell ref="A167:M167"/>
-    <mergeCell ref="A163:M163"/>
-    <mergeCell ref="Q161:S161"/>
-    <mergeCell ref="Q162:S162"/>
-    <mergeCell ref="O155:P155"/>
-    <mergeCell ref="O156:P156"/>
-    <mergeCell ref="O157:P157"/>
-    <mergeCell ref="O158:P158"/>
-    <mergeCell ref="Q155:S155"/>
-    <mergeCell ref="Q156:S156"/>
-    <mergeCell ref="Q157:S157"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="I160:M160"/>
-    <mergeCell ref="A155:F156"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A157:F158"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="I155:M155"/>
-    <mergeCell ref="I156:M156"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="O162:P162"/>
-    <mergeCell ref="O167:P167"/>
-    <mergeCell ref="O161:P161"/>
-    <mergeCell ref="A165:S165"/>
-    <mergeCell ref="O166:P166"/>
-    <mergeCell ref="Q166:S166"/>
-    <mergeCell ref="A166:M166"/>
-    <mergeCell ref="G161:M161"/>
-    <mergeCell ref="G162:M162"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="A162:F162"/>
-    <mergeCell ref="Q176:S176"/>
-    <mergeCell ref="Q177:S177"/>
-    <mergeCell ref="A180:F180"/>
-    <mergeCell ref="G174:M174"/>
-    <mergeCell ref="G175:M175"/>
-    <mergeCell ref="G177:M177"/>
-    <mergeCell ref="G178:M178"/>
-    <mergeCell ref="G180:M180"/>
-    <mergeCell ref="G181:M181"/>
-    <mergeCell ref="A176:M176"/>
-    <mergeCell ref="A179:M179"/>
-    <mergeCell ref="A174:F174"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A177:F177"/>
-    <mergeCell ref="A178:F178"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="O177:P177"/>
-    <mergeCell ref="Q174:S174"/>
-    <mergeCell ref="Q175:S175"/>
-    <mergeCell ref="D119:M119"/>
-    <mergeCell ref="O119:P119"/>
-    <mergeCell ref="G76:M76"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="G71:M71"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E58:M59"/>
-    <mergeCell ref="E64:M66"/>
-    <mergeCell ref="G69:M69"/>
-    <mergeCell ref="G70:M70"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="A64:D66"/>
-    <mergeCell ref="A68:S68"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G74:M74"/>
-    <mergeCell ref="G75:M75"/>
-    <mergeCell ref="A182:M182"/>
-    <mergeCell ref="E48:M50"/>
-    <mergeCell ref="D120:M120"/>
-    <mergeCell ref="D121:M121"/>
-    <mergeCell ref="Q178:S178"/>
-    <mergeCell ref="Q179:S179"/>
-    <mergeCell ref="Q180:S180"/>
-    <mergeCell ref="Q181:S181"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="O181:P181"/>
-    <mergeCell ref="O180:P180"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="Q163:S163"/>
-    <mergeCell ref="Q167:S167"/>
-    <mergeCell ref="Q168:S168"/>
-    <mergeCell ref="O173:P173"/>
-    <mergeCell ref="Q119:S119"/>
-    <mergeCell ref="Q120:S120"/>
-    <mergeCell ref="A117:M117"/>
-    <mergeCell ref="O117:P117"/>
-    <mergeCell ref="O110:P110"/>
-    <mergeCell ref="Q110:S110"/>
-    <mergeCell ref="F96:M96"/>
-    <mergeCell ref="F97:M97"/>
-    <mergeCell ref="F98:M98"/>
-    <mergeCell ref="D103:M103"/>
-    <mergeCell ref="D104:M104"/>
-    <mergeCell ref="A109:S109"/>
-    <mergeCell ref="G172:M172"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="O171:P171"/>
-    <mergeCell ref="O169:P169"/>
-    <mergeCell ref="O170:P170"/>
-    <mergeCell ref="O168:P168"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="Q169:S169"/>
-    <mergeCell ref="Q170:S170"/>
-    <mergeCell ref="Q171:S171"/>
-    <mergeCell ref="Q172:S172"/>
-    <mergeCell ref="G171:M171"/>
-    <mergeCell ref="O114:P114"/>
-    <mergeCell ref="Q111:S111"/>
-    <mergeCell ref="A119:C121"/>
-    <mergeCell ref="Q86:S90"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="A209:E209"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="L209:M209"/>
-    <mergeCell ref="I209:K209"/>
-    <mergeCell ref="O113:P113"/>
-    <mergeCell ref="E110:M110"/>
-    <mergeCell ref="N204:Q204"/>
-    <mergeCell ref="N205:Q205"/>
-    <mergeCell ref="N206:Q206"/>
-    <mergeCell ref="N207:Q207"/>
-    <mergeCell ref="N208:Q208"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A207:E207"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="L208:M208"/>
-    <mergeCell ref="O176:P176"/>
-    <mergeCell ref="O175:P175"/>
-    <mergeCell ref="O174:P174"/>
+    <mergeCell ref="A203:S203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="I204:K204"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="I205:K205"/>
+    <mergeCell ref="I206:K206"/>
+    <mergeCell ref="I207:K207"/>
+    <mergeCell ref="I208:K208"/>
+    <mergeCell ref="R204:S204"/>
+    <mergeCell ref="R205:S205"/>
+    <mergeCell ref="R206:S206"/>
+    <mergeCell ref="R207:S207"/>
+    <mergeCell ref="R208:S208"/>
+    <mergeCell ref="A184:S184"/>
+    <mergeCell ref="A185:M185"/>
+    <mergeCell ref="O185:P185"/>
+    <mergeCell ref="Q185:S185"/>
+    <mergeCell ref="A186:M186"/>
+    <mergeCell ref="O186:P186"/>
+    <mergeCell ref="Q186:S186"/>
+    <mergeCell ref="A187:M187"/>
+    <mergeCell ref="O187:P187"/>
+    <mergeCell ref="Q187:S187"/>
+    <mergeCell ref="A188:M188"/>
+    <mergeCell ref="O188:P188"/>
+    <mergeCell ref="Q188:S188"/>
+    <mergeCell ref="A189:M189"/>
+    <mergeCell ref="O189:P189"/>
+    <mergeCell ref="Q189:S189"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="G190:M190"/>
+    <mergeCell ref="O190:P190"/>
+    <mergeCell ref="Q190:S190"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="G191:M191"/>
+    <mergeCell ref="O191:P191"/>
+    <mergeCell ref="Q191:S191"/>
+    <mergeCell ref="A192:M192"/>
+    <mergeCell ref="O192:P192"/>
+    <mergeCell ref="Q192:S192"/>
+    <mergeCell ref="A193:F193"/>
+    <mergeCell ref="G193:M193"/>
+    <mergeCell ref="O193:P193"/>
+    <mergeCell ref="Q193:S193"/>
+    <mergeCell ref="A194:F194"/>
+    <mergeCell ref="G194:M194"/>
+    <mergeCell ref="O194:P194"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="A195:M195"/>
+    <mergeCell ref="O195:P195"/>
+    <mergeCell ref="Q195:S195"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="G196:M196"/>
+    <mergeCell ref="O196:P196"/>
+    <mergeCell ref="Q196:S196"/>
+    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="G200:M200"/>
+    <mergeCell ref="O200:P200"/>
+    <mergeCell ref="Q200:S200"/>
+    <mergeCell ref="A201:M201"/>
+    <mergeCell ref="O201:P201"/>
+    <mergeCell ref="Q201:S201"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="G197:M197"/>
+    <mergeCell ref="O197:P197"/>
+    <mergeCell ref="Q197:S197"/>
+    <mergeCell ref="A198:M198"/>
+    <mergeCell ref="O198:P198"/>
+    <mergeCell ref="Q198:S198"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="G199:M199"/>
+    <mergeCell ref="O199:P199"/>
+    <mergeCell ref="Q199:S199"/>
   </mergeCells>
   <conditionalFormatting sqref="G205:H205">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
@@ -9983,8 +9983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:S93"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85:M85"/>
+    <sheetView view="pageLayout" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80:P80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10217,15 +10217,15 @@
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="21" t="s">
         <v>84</v>
       </c>
@@ -10283,15 +10283,15 @@
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="21" t="s">
         <v>434</v>
       </c>
@@ -10415,10 +10415,10 @@
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="24">
+      <c r="L22" s="32">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M22" s="24"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="22" t="str">
         <f>IF(G22&gt;L22,"Não","Sim")</f>
         <v>Sim</v>
@@ -10449,10 +10449,10 @@
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="24">
+      <c r="L23" s="32">
         <v>1E-3</v>
       </c>
-      <c r="M23" s="24"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="22" t="str">
         <f>IF(Relatório!R205="Sim",IF(G23&gt;L23,"Não","Sim"),"Não estudado")</f>
         <v>Não estudado</v>
@@ -10483,10 +10483,10 @@
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="24">
+      <c r="L24" s="32">
         <v>1E-4</v>
       </c>
-      <c r="M24" s="24"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="22" t="str">
         <f>IF(Relatório!R206="Sim",IF(G24&gt;L24,"Não","Sim"),"Não estudado")</f>
         <v>Não estudado</v>
@@ -10518,10 +10518,10 @@
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="24">
+      <c r="L25" s="32">
         <v>1E-3</v>
       </c>
-      <c r="M25" s="24"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="22" t="str">
         <f>IF(Relatório!R208="Sim",IF(G25&gt;L25,"Não","Sim"),"Não estudado")</f>
         <v>Não estudado</v>
@@ -10619,14 +10619,14 @@
       <c r="S39" s="22"/>
     </row>
     <row r="40" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
       <c r="G40" s="22" t="s">
         <v>71</v>
       </c>
@@ -10653,12 +10653,12 @@
       <c r="S40" s="22"/>
     </row>
     <row r="41" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
       <c r="G41" s="22" t="s">
         <v>72</v>
       </c>
@@ -10685,12 +10685,12 @@
       <c r="S41" s="22"/>
     </row>
     <row r="42" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="22" t="s">
         <v>441</v>
       </c>
@@ -10717,14 +10717,14 @@
       <c r="S42" s="22"/>
     </row>
     <row r="43" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
       <c r="G43" s="22" t="s">
         <v>71</v>
       </c>
@@ -10751,12 +10751,12 @@
       <c r="S43" s="22"/>
     </row>
     <row r="44" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="22" t="s">
         <v>72</v>
       </c>
@@ -10783,14 +10783,14 @@
       <c r="S44" s="22"/>
     </row>
     <row r="45" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
       <c r="G45" s="22" t="s">
         <v>71</v>
       </c>
@@ -10817,12 +10817,12 @@
       <c r="S45" s="22"/>
     </row>
     <row r="46" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
       <c r="G46" s="22" t="s">
         <v>72</v>
       </c>
@@ -10849,14 +10849,14 @@
       <c r="S46" s="22"/>
     </row>
     <row r="47" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="22" t="s">
         <v>71</v>
       </c>
@@ -10883,12 +10883,12 @@
       <c r="S47" s="22"/>
     </row>
     <row r="48" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
       <c r="G48" s="22" t="s">
         <v>72</v>
       </c>
@@ -10915,14 +10915,14 @@
       <c r="S48" s="22"/>
     </row>
     <row r="49" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="22" t="s">
         <v>71</v>
       </c>
@@ -10949,12 +10949,12 @@
       <c r="S49" s="22"/>
     </row>
     <row r="50" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="22" t="s">
         <v>72</v>
       </c>
@@ -10981,14 +10981,14 @@
       <c r="S50" s="22"/>
     </row>
     <row r="51" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="22" t="s">
         <v>71</v>
       </c>
@@ -11015,12 +11015,12 @@
       <c r="S51" s="22"/>
     </row>
     <row r="52" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
       <c r="G52" s="22" t="s">
         <v>72</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>213</v>
       </c>
       <c r="O80" s="23">
-        <f>IF($R$21="Sim",Relatório!$O$136*$O$42*Relatório!O121,0)</f>
+        <f>IF(Relatório!R208="Sim",Relatório!$O$136*$O$42*Relatório!O121,0)</f>
         <v>0</v>
       </c>
       <c r="P80" s="23"/>
@@ -11850,7 +11850,7 @@
         <v>214</v>
       </c>
       <c r="O81" s="23">
-        <f>IF($R$21="Sim",Relatório!$O$137*$O$55*Relatório!O121,0)</f>
+        <f>IF(Relatório!R208="Sim",Relatório!$O$137*$O$55*Relatório!O121,0)</f>
         <v>0</v>
       </c>
       <c r="P81" s="23"/>
@@ -12238,6 +12238,249 @@
     </row>
   </sheetData>
   <mergeCells count="267">
+    <mergeCell ref="A93:M93"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:M91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:M92"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:M89"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="A87:M87"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:M88"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:M85"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:M86"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="A84:M84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="A81:M81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="A79:M79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="A80:M80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="A78:M78"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A76:S76"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="A20:S20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A77:M77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="A74:M74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="G69:M69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:M70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:M67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="A68:M68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:M63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="A65:M65"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="A62:M62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="A61:M61"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="A57:S57"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="A55:M55"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="A49:F50"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="A51:F52"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="A45:F46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="A47:F48"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:S42"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
@@ -12262,249 +12505,6 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="A45:F46"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="A47:F48"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="A49:F50"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="A51:F52"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="A57:S57"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="A55:M55"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="A62:M62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="A61:M61"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:M63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="A65:M65"/>
-    <mergeCell ref="G69:M69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:M70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:M67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="A68:M68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="A74:M74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="A77:M77"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A43:F44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="A78:M78"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A76:S76"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="A20:S20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A81:M81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:M82"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="A79:M79"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="A80:M80"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:M85"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:M86"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="A84:M84"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:M89"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="A90:M90"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="A87:M87"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:M88"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="A93:M93"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:M91"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:M92"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="Q92:S92"/>
   </mergeCells>
   <conditionalFormatting sqref="G22:H22">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
@@ -12636,22 +12636,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="34"/>
       <c r="D1" s="6" t="s">
         <v>255</v>
       </c>
       <c r="E1" s="7"/>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="J1" s="42" t="s">
+      <c r="H1" s="36"/>
+      <c r="J1" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="42"/>
+      <c r="K1" s="34"/>
       <c r="M1" s="33" t="s">
         <v>273</v>
       </c>
@@ -12681,33 +12681,33 @@
         <v>323</v>
       </c>
       <c r="AG1" s="33"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AI1" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="36"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="39"/>
       <c r="AP1" s="11"/>
-      <c r="AR1" s="34" t="s">
+      <c r="AR1" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="36"/>
-      <c r="AY1" s="34" t="s">
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="39"/>
+      <c r="AY1" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="36"/>
-      <c r="BC1" s="34" t="s">
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="39"/>
+      <c r="BC1" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="BD1" s="36"/>
+      <c r="BD1" s="39"/>
       <c r="BF1" s="33" t="s">
         <v>353</v>
       </c>
@@ -12804,30 +12804,30 @@
       <c r="AG2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AI2" s="42" t="s">
+      <c r="AI2" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="AJ2" s="42" t="s">
+      <c r="AJ2" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
       <c r="AO2" s="7" t="s">
         <v>388</v>
       </c>
       <c r="AP2" s="12"/>
-      <c r="AR2" s="37" t="s">
+      <c r="AR2" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="AS2" s="39" t="s">
+      <c r="AS2" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="41"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="36"/>
       <c r="AY2" s="7" t="s">
         <v>94</v>
       </c>
@@ -12953,7 +12953,7 @@
       <c r="AG3" s="7">
         <v>1</v>
       </c>
-      <c r="AI3" s="42"/>
+      <c r="AI3" s="34"/>
       <c r="AJ3" s="7">
         <v>1</v>
       </c>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="AO3" s="7"/>
       <c r="AP3" s="12"/>
-      <c r="AR3" s="38"/>
+      <c r="AR3" s="41"/>
       <c r="AS3" s="7">
         <v>1</v>
       </c>
@@ -12987,7 +12987,7 @@
       <c r="AW3" s="7">
         <v>6</v>
       </c>
-      <c r="AY3" s="42" t="s">
+      <c r="AY3" s="34" t="s">
         <v>338</v>
       </c>
       <c r="AZ3" s="6" t="s">
@@ -13154,7 +13154,7 @@
       <c r="AW4" s="7">
         <v>0.1</v>
       </c>
-      <c r="AY4" s="42"/>
+      <c r="AY4" s="34"/>
       <c r="AZ4" s="6" t="s">
         <v>340</v>
       </c>
@@ -13307,7 +13307,7 @@
       <c r="AW5" s="7">
         <v>0.04</v>
       </c>
-      <c r="AY5" s="42"/>
+      <c r="AY5" s="34"/>
       <c r="AZ5" s="6" t="s">
         <v>341</v>
       </c>
@@ -13436,7 +13436,7 @@
       <c r="AP6" s="12">
         <v>4</v>
       </c>
-      <c r="AY6" s="42"/>
+      <c r="AY6" s="34"/>
       <c r="AZ6" s="9" t="s">
         <v>342</v>
       </c>
@@ -13531,7 +13531,7 @@
       <c r="AP7" s="12">
         <v>5</v>
       </c>
-      <c r="AY7" s="42"/>
+      <c r="AY7" s="34"/>
       <c r="AZ7" s="9" t="s">
         <v>343</v>
       </c>
@@ -13582,7 +13582,7 @@
       <c r="X8" s="7">
         <v>0</v>
       </c>
-      <c r="AY8" s="42" t="s">
+      <c r="AY8" s="34" t="s">
         <v>344</v>
       </c>
       <c r="AZ8" s="9" t="s">
@@ -13617,7 +13617,7 @@
       <c r="X9" s="7">
         <v>0</v>
       </c>
-      <c r="AY9" s="42"/>
+      <c r="AY9" s="34"/>
       <c r="AZ9" s="6" t="s">
         <v>345</v>
       </c>
@@ -13650,7 +13650,7 @@
       <c r="X10" s="7">
         <v>0</v>
       </c>
-      <c r="AY10" s="42"/>
+      <c r="AY10" s="34"/>
       <c r="AZ10" s="6" t="s">
         <v>346</v>
       </c>
@@ -13707,21 +13707,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AI1:AO1"/>
     <mergeCell ref="BU1:BW1"/>
     <mergeCell ref="BR1:BS1"/>
     <mergeCell ref="AR1:AW1"/>
@@ -13733,6 +13718,21 @@
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="BL1:BM1"/>
     <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AI1:AO1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/spda.xlsx
+++ b/spda.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório" sheetId="1" r:id="rId1"/>
@@ -3288,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O122" sqref="O122"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G208" sqref="G208:H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9983,8 +9983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:S93"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O80" sqref="O80:P80"/>
+    <sheetView view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10407,7 +10407,7 @@
       </c>
       <c r="G22" s="23">
         <f>O59+O60+O61+O62+O68+O71+O74</f>
-        <v>1.2631242201287073E-6</v>
+        <v>1.2614044059925823E-6</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22" t="s">
@@ -10509,7 +10509,7 @@
         <v>451</v>
       </c>
       <c r="G25" s="23">
-        <f>O78+O79+O80+O81+O84+O87+O90+O93</f>
+        <f>IF(Relatório!R208="Sim",SUMIF(Relatório!R207,"Sim",O61)+O62+O63+O64+SUMIF(Relatório!R204,"Sim",O67)+O70+O73+O76,0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="23"/>
@@ -10608,7 +10608,7 @@
         <v>178</v>
       </c>
       <c r="O39" s="23">
-        <f>O8*Relatório!O27</f>
+        <f>O8*O7</f>
         <v>0</v>
       </c>
       <c r="P39" s="23"/>
@@ -10741,7 +10741,7 @@
       </c>
       <c r="O43" s="23">
         <f>O13*O53</f>
-        <v>3.3333333333333335E-7</v>
+        <v>5.5555555555555563E-12</v>
       </c>
       <c r="P43" s="23"/>
       <c r="Q43" s="22" t="s">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="O44" s="23">
         <f>O15*O54</f>
-        <v>3.3333333333333335E-7</v>
+        <v>5.5555555555555563E-12</v>
       </c>
       <c r="P44" s="23"/>
       <c r="Q44" s="22" t="s">
@@ -11068,8 +11068,8 @@
         <v>208</v>
       </c>
       <c r="O53" s="23">
-        <f>(Relatório!O31*Relatório!O32*O12*Relatório!O49)</f>
-        <v>1.6666666666666667E-5</v>
+        <f>(Relatório!O31*Relatório!O32*O12*Relatório!O49)^2</f>
+        <v>2.7777777777777782E-10</v>
       </c>
       <c r="P53" s="23"/>
       <c r="Q53" s="22" t="s">
@@ -11100,8 +11100,8 @@
         <v>209</v>
       </c>
       <c r="O54" s="23">
-        <f>(Relatório!O31*Relatório!O32*O14*Relatório!O49)</f>
-        <v>1.6666666666666667E-5</v>
+        <f>(Relatório!O31*Relatório!O32*O14*Relatório!O49)^2</f>
+        <v>2.7777777777777782E-10</v>
       </c>
       <c r="P54" s="23"/>
       <c r="Q54" s="22" t="s">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="O55" s="23">
         <f>1-(1-O43)*(1-O44)</f>
-        <v>6.6666655562652721E-7</v>
+        <v>1.1111112030448567E-11</v>
       </c>
       <c r="P55" s="23"/>
       <c r="Q55" s="22" t="s">
@@ -11242,7 +11242,7 @@
         <v>212</v>
       </c>
       <c r="O60" s="23">
-        <f>Relatório!$O$136*$O$7*Relatório!$O$92</f>
+        <f>Relatório!$O$136*$O$7*Relatório!$O$92/Relatório!O74*Estudo!O10</f>
         <v>6.3667062058586402E-7</v>
       </c>
       <c r="P60" s="23"/>
@@ -11303,7 +11303,7 @@
       </c>
       <c r="O62" s="23">
         <f>IF(Relatório!R204="Sim",Relatório!$O$137*$O$55*Relatório!$O$93,0)</f>
-        <v>1.7198428001788242E-9</v>
+        <v>2.8664053815611725E-14</v>
       </c>
       <c r="P62" s="23"/>
       <c r="Q62" s="22" t="s">
@@ -11428,7 +11428,7 @@
         <v>235</v>
       </c>
       <c r="O66" s="23">
-        <f>(Relatório!$O$138+Relatório!$O$140)*$O$51*Relatório!$O$92</f>
+        <f>(Relatório!$O$138+Relatório!$O$140)*$O$51*Relatório!$O$92/Relatório!O74*Estudo!O10</f>
         <v>1.4246575342465754E-9</v>
       </c>
       <c r="P66" s="23"/>
@@ -11460,7 +11460,7 @@
         <v>461</v>
       </c>
       <c r="O67" s="23">
-        <f>(Relatório!$O$141+Relatório!$O$143)*$O$52*Relatório!$O$92</f>
+        <f>(Relatório!$O$141+Relatório!$O$143)*$O$52*Relatório!$O$92/Relatório!O74*Estudo!O10</f>
         <v>0</v>
       </c>
       <c r="P67" s="23"/>
@@ -12537,7 +12537,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dados!$M$3:$M$7</xm:f>
